--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Leetcode\Leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B5E58E-7987-47CB-A3D6-A89E50CC01E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2759D8F6-8B25-49DC-B766-EA4549C34145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -591,39 +591,39 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B28" s="1">
-        <v>45461</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B29" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B30" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>1021</v>
+        <v>876</v>
       </c>
       <c r="B31" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="B32" s="1">
         <v>45712</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B33" s="1">
         <v>45712</v>
@@ -639,47 +639,47 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B34" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B35" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B36" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B37" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B38" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B39" s="1">
         <v>45464</v>
@@ -687,15 +687,15 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B40" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B41" s="1">
         <v>45713</v>
@@ -703,15 +703,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>2235</v>
+        <v>2129</v>
       </c>
       <c r="B42" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B43" s="1">
         <v>45711</v>
@@ -719,31 +719,39 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>2579</v>
+        <v>2236</v>
       </c>
       <c r="B44" s="1">
-        <v>45721</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B45" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B46" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>3110</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B46">
-    <sortCondition ref="A1:A46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B47">
+    <sortCondition ref="A1:A47"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2759D8F6-8B25-49DC-B766-EA4549C34145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B6C18A-1D82-4F0D-BB29-F00B311C39DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -423,39 +423,39 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
-        <v>45445</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1">
-        <v>45711</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1">
-        <v>45445</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1">
-        <v>45711</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1">
         <v>45711</v>
@@ -463,23 +463,23 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1">
-        <v>45447</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B13" s="1">
-        <v>45448</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B14" s="1">
         <v>45448</v>
@@ -487,47 +487,47 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B15" s="1">
-        <v>45450</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="B16" s="1">
-        <v>45451</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B17" s="1">
-        <v>45711</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="B18" s="1">
-        <v>45452</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B19" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B20" s="1">
         <v>45461</v>
@@ -535,103 +535,103 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="B21" s="1">
-        <v>45711</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B22" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="B23" s="1">
-        <v>45464</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B24" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B25" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="B26" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B27" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>704</v>
+        <v>412</v>
       </c>
       <c r="B28" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B29" s="1">
-        <v>45461</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B30" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B31" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>1021</v>
+        <v>876</v>
       </c>
       <c r="B32" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="B33" s="1">
         <v>45712</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B34" s="1">
         <v>45712</v>
@@ -647,47 +647,47 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B35" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B36" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B37" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B38" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B39" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B40" s="1">
         <v>45464</v>
@@ -695,15 +695,15 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B41" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B42" s="1">
         <v>45713</v>
@@ -711,15 +711,15 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>2235</v>
+        <v>2129</v>
       </c>
       <c r="B43" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B44" s="1">
         <v>45711</v>
@@ -727,31 +727,39 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>2579</v>
+        <v>2236</v>
       </c>
       <c r="B45" s="1">
-        <v>45721</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B46" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B47" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>3110</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B47">
-    <sortCondition ref="A1:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B48">
+    <sortCondition ref="A1:A48"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B6C18A-1D82-4F0D-BB29-F00B311C39DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FC4724-BAED-4513-BBFC-FDAD189A9B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -631,15 +631,15 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>1021</v>
+        <v>977</v>
       </c>
       <c r="B33" s="1">
-        <v>45712</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="B34" s="1">
         <v>45712</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B35" s="1">
         <v>45712</v>
@@ -655,47 +655,47 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B36" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B37" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B38" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B39" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B40" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B41" s="1">
         <v>45464</v>
@@ -703,15 +703,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B42" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B43" s="1">
         <v>45713</v>
@@ -719,15 +719,15 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>2235</v>
+        <v>2129</v>
       </c>
       <c r="B44" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B45" s="1">
         <v>45711</v>
@@ -735,31 +735,39 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>2579</v>
+        <v>2236</v>
       </c>
       <c r="B46" s="1">
-        <v>45721</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B47" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B48" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>3110</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B48">
-    <sortCondition ref="A1:A48"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B49">
+    <sortCondition ref="A1:A49"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FC4724-BAED-4513-BBFC-FDAD189A9B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2346CC-AD15-4AC3-8ED3-16E24508A36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -447,23 +447,23 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1">
-        <v>45445</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1">
-        <v>45711</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1">
         <v>45711</v>
@@ -471,23 +471,23 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1">
-        <v>45447</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B14" s="1">
-        <v>45448</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B15" s="1">
         <v>45448</v>
@@ -495,63 +495,63 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B16" s="1">
-        <v>45450</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="B17" s="1">
-        <v>45451</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B18" s="1">
-        <v>45711</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="B19" s="1">
-        <v>45452</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="B20" s="1">
-        <v>45461</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="B21" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="B22" s="1">
-        <v>45711</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="B23" s="1">
         <v>45461</v>
@@ -559,55 +559,55 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>326</v>
+        <v>203</v>
       </c>
       <c r="B24" s="1">
-        <v>45464</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>337</v>
+        <v>209</v>
       </c>
       <c r="B25" s="1">
-        <v>45712</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>342</v>
+        <v>226</v>
       </c>
       <c r="B26" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>383</v>
+        <v>231</v>
       </c>
       <c r="B27" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>412</v>
+        <v>326</v>
       </c>
       <c r="B28" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>704</v>
+        <v>337</v>
       </c>
       <c r="B29" s="1">
-        <v>45730</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>709</v>
+        <v>342</v>
       </c>
       <c r="B30" s="1">
         <v>45461</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>771</v>
+        <v>383</v>
       </c>
       <c r="B31" s="1">
         <v>45712</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>876</v>
+        <v>412</v>
       </c>
       <c r="B32" s="1">
         <v>45713</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>977</v>
+        <v>704</v>
       </c>
       <c r="B33" s="1">
         <v>45730</v>
@@ -639,15 +639,15 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>1021</v>
+        <v>709</v>
       </c>
       <c r="B34" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>1051</v>
+        <v>771</v>
       </c>
       <c r="B35" s="1">
         <v>45712</v>
@@ -655,39 +655,39 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>1108</v>
+        <v>876</v>
       </c>
       <c r="B36" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>1342</v>
+        <v>977</v>
       </c>
       <c r="B37" s="1">
-        <v>45713</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>1480</v>
+        <v>1021</v>
       </c>
       <c r="B38" s="1">
-        <v>45711</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>1524</v>
+        <v>1051</v>
       </c>
       <c r="B39" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>1672</v>
+        <v>1108</v>
       </c>
       <c r="B40" s="1">
         <v>45712</v>
@@ -695,23 +695,23 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>1920</v>
+        <v>1342</v>
       </c>
       <c r="B41" s="1">
-        <v>45464</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>1929</v>
+        <v>1480</v>
       </c>
       <c r="B42" s="1">
-        <v>45464</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>2011</v>
+        <v>1524</v>
       </c>
       <c r="B43" s="1">
         <v>45713</v>
@@ -719,55 +719,87 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>2129</v>
+        <v>1672</v>
       </c>
       <c r="B44" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>2235</v>
+        <v>1920</v>
       </c>
       <c r="B45" s="1">
-        <v>45711</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>2236</v>
+        <v>1929</v>
       </c>
       <c r="B46" s="1">
-        <v>45711</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>2579</v>
+        <v>2011</v>
       </c>
       <c r="B47" s="1">
-        <v>45721</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>2769</v>
+        <v>2129</v>
       </c>
       <c r="B48" s="1">
-        <v>45464</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
+        <v>2235</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45711</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>2236</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45711</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>2579</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>2769</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53">
         <v>3110</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B53" s="1">
         <v>45464</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B49">
-    <sortCondition ref="A1:A49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B53">
+    <sortCondition ref="A1:A53"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2346CC-AD15-4AC3-8ED3-16E24508A36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576CDFCB-1872-48E3-88AC-520F7598112C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -639,47 +639,47 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B34" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B35" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B36" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B37" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>1021</v>
+        <v>977</v>
       </c>
       <c r="B38" s="1">
-        <v>45712</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="B39" s="1">
         <v>45712</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B40" s="1">
         <v>45712</v>
@@ -695,47 +695,47 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B41" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B42" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B43" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B44" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B45" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B46" s="1">
         <v>45464</v>
@@ -743,15 +743,15 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B47" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B48" s="1">
         <v>45713</v>
@@ -759,15 +759,15 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>2235</v>
+        <v>2129</v>
       </c>
       <c r="B49" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B50" s="1">
         <v>45711</v>
@@ -775,31 +775,39 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>2579</v>
+        <v>2236</v>
       </c>
       <c r="B51" s="1">
-        <v>45721</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B52" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B53" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>3110</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B53">
-    <sortCondition ref="A1:A53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B54">
+    <sortCondition ref="A1:A54"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576CDFCB-1872-48E3-88AC-520F7598112C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1317BCC6-F6C2-4A40-8037-615821B84D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -567,127 +567,127 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B25" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B26" s="1">
-        <v>45711</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B27" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="B28" s="1">
-        <v>45464</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B29" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B30" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="B31" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B32" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>704</v>
+        <v>412</v>
       </c>
       <c r="B33" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B34" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B35" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B36" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B37" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B38" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>1021</v>
+        <v>977</v>
       </c>
       <c r="B39" s="1">
-        <v>45712</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="B40" s="1">
         <v>45712</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B41" s="1">
         <v>45712</v>
@@ -703,47 +703,47 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B42" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B43" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B44" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B45" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B46" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B47" s="1">
         <v>45464</v>
@@ -751,15 +751,15 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B48" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B49" s="1">
         <v>45713</v>
@@ -767,15 +767,15 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>2235</v>
+        <v>2129</v>
       </c>
       <c r="B50" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B51" s="1">
         <v>45711</v>
@@ -783,31 +783,39 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>2579</v>
+        <v>2236</v>
       </c>
       <c r="B52" s="1">
-        <v>45721</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B53" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B54" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>3110</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B54">
-    <sortCondition ref="A1:A54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B57">
+    <sortCondition ref="A1:A57"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1317BCC6-F6C2-4A40-8037-615821B84D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A97ACF-B5BF-4508-803F-E0509019E974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -423,55 +423,55 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
-        <v>45445</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1">
-        <v>45711</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1">
-        <v>45730</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1">
-        <v>45445</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1">
-        <v>45711</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1">
         <v>45711</v>
@@ -479,23 +479,23 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1">
-        <v>45447</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B15" s="1">
-        <v>45448</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B16" s="1">
         <v>45448</v>
@@ -503,55 +503,55 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B17" s="1">
-        <v>45450</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="B18" s="1">
-        <v>45451</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B19" s="1">
-        <v>45711</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" s="1">
-        <v>45729</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="B21" s="1">
-        <v>45452</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B22" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B23" s="1">
         <v>45461</v>
@@ -559,143 +559,143 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B24" s="1">
-        <v>45730</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B25" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B26" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B27" s="1">
-        <v>45711</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B28" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="B29" s="1">
-        <v>45464</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B30" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B31" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="B32" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B33" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>704</v>
+        <v>412</v>
       </c>
       <c r="B34" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B35" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B36" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B37" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B38" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B39" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>1021</v>
+        <v>977</v>
       </c>
       <c r="B40" s="1">
-        <v>45712</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="B41" s="1">
         <v>45712</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B42" s="1">
         <v>45712</v>
@@ -711,47 +711,47 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B43" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B44" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B45" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B46" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B47" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B48" s="1">
         <v>45464</v>
@@ -759,15 +759,15 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B49" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B50" s="1">
         <v>45713</v>
@@ -775,15 +775,15 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>2235</v>
+        <v>2129</v>
       </c>
       <c r="B51" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B52" s="1">
         <v>45711</v>
@@ -791,31 +791,39 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>2579</v>
+        <v>2236</v>
       </c>
       <c r="B53" s="1">
-        <v>45721</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B54" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B55" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>3110</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B57">
-    <sortCondition ref="A1:A57"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B56">
+    <sortCondition ref="A1:A56"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A97ACF-B5BF-4508-803F-E0509019E974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E608826E-D2E0-423F-999F-DFAC717E2488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -407,79 +407,79 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
-        <v>45445</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1">
-        <v>45731</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
-        <v>45445</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1">
-        <v>45711</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1">
-        <v>45730</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1">
-        <v>45445</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1">
-        <v>45711</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1">
         <v>45711</v>
@@ -487,23 +487,23 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1">
-        <v>45447</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B16" s="1">
-        <v>45448</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B17" s="1">
         <v>45448</v>
@@ -511,55 +511,55 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B18" s="1">
-        <v>45450</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="B19" s="1">
-        <v>45451</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B20" s="1">
-        <v>45711</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B21" s="1">
-        <v>45729</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="B22" s="1">
-        <v>45452</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B23" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B24" s="1">
         <v>45461</v>
@@ -567,143 +567,143 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B25" s="1">
-        <v>45730</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B26" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B27" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B28" s="1">
-        <v>45711</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B29" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="B30" s="1">
-        <v>45464</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B31" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B32" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="B33" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B34" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>704</v>
+        <v>412</v>
       </c>
       <c r="B35" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B36" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B37" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B38" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B39" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B40" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>1021</v>
+        <v>977</v>
       </c>
       <c r="B41" s="1">
-        <v>45712</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="B42" s="1">
         <v>45712</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B43" s="1">
         <v>45712</v>
@@ -719,47 +719,47 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B44" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B45" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B46" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B47" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B48" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B49" s="1">
         <v>45464</v>
@@ -767,15 +767,15 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B50" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B51" s="1">
         <v>45713</v>
@@ -783,15 +783,15 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>2235</v>
+        <v>2129</v>
       </c>
       <c r="B52" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B53" s="1">
         <v>45711</v>
@@ -799,31 +799,39 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>2579</v>
+        <v>2236</v>
       </c>
       <c r="B54" s="1">
-        <v>45721</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B55" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B56" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>3110</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B56">
-    <sortCondition ref="A1:A56"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B57">
+    <sortCondition ref="A1:A57"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E608826E-D2E0-423F-999F-DFAC717E2488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF845975-CE32-4FC1-80DD-5FC0BD26D4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -551,23 +551,23 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B23" s="1">
-        <v>45452</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B24" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B25" s="1">
         <v>45461</v>
@@ -575,143 +575,143 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B26" s="1">
-        <v>45730</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B27" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B28" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B29" s="1">
-        <v>45711</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B30" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="B31" s="1">
-        <v>45464</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B32" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B33" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="B34" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B35" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>704</v>
+        <v>412</v>
       </c>
       <c r="B36" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B37" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B38" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B39" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B40" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B41" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>1021</v>
+        <v>977</v>
       </c>
       <c r="B42" s="1">
-        <v>45712</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="B43" s="1">
         <v>45712</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B44" s="1">
         <v>45712</v>
@@ -727,47 +727,47 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B45" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B46" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B47" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B48" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B49" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B50" s="1">
         <v>45464</v>
@@ -775,15 +775,15 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B51" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B52" s="1">
         <v>45713</v>
@@ -791,15 +791,15 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>2235</v>
+        <v>2129</v>
       </c>
       <c r="B53" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B54" s="1">
         <v>45711</v>
@@ -807,31 +807,39 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>2579</v>
+        <v>2236</v>
       </c>
       <c r="B55" s="1">
-        <v>45721</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B56" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B57" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>3110</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B57">
-    <sortCondition ref="A1:A57"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B58">
+    <sortCondition ref="A1:A58"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF845975-CE32-4FC1-80DD-5FC0BD26D4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B3A678-38B4-4AB8-91FD-83836FD60DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -623,103 +623,103 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B32" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B33" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B34" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="B35" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B36" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>704</v>
+        <v>412</v>
       </c>
       <c r="B37" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B38" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B39" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B40" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B41" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B42" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>1021</v>
+        <v>977</v>
       </c>
       <c r="B43" s="1">
-        <v>45712</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="B44" s="1">
         <v>45712</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B45" s="1">
         <v>45712</v>
@@ -735,47 +735,47 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B46" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B47" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B48" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B49" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B50" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B51" s="1">
         <v>45464</v>
@@ -783,15 +783,15 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B52" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B53" s="1">
         <v>45713</v>
@@ -799,15 +799,15 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>2235</v>
+        <v>2129</v>
       </c>
       <c r="B54" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B55" s="1">
         <v>45711</v>
@@ -815,31 +815,39 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>2579</v>
+        <v>2236</v>
       </c>
       <c r="B56" s="1">
-        <v>45721</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B57" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B58" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>3110</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B58">
-    <sortCondition ref="A1:A58"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B59">
+    <sortCondition ref="A1:A59"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B3A678-38B4-4AB8-91FD-83836FD60DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935E4366-9BD2-4198-A0BE-528DAD892EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -719,15 +719,15 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B44" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="B45" s="1">
         <v>45712</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B46" s="1">
         <v>45712</v>
@@ -743,47 +743,47 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B47" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B48" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B49" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B50" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B51" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B52" s="1">
         <v>45464</v>
@@ -791,15 +791,15 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B53" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B54" s="1">
         <v>45713</v>
@@ -807,15 +807,15 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>2235</v>
+        <v>2129</v>
       </c>
       <c r="B55" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B56" s="1">
         <v>45711</v>
@@ -823,31 +823,39 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>2579</v>
+        <v>2236</v>
       </c>
       <c r="B57" s="1">
-        <v>45721</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B58" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B59" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>3110</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B59">
-    <sortCondition ref="A1:A59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B60">
+    <sortCondition ref="A1:A60"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935E4366-9BD2-4198-A0BE-528DAD892EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E24C13A-C2B9-4D10-B09E-011438625BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -655,87 +655,87 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B36" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B37" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>704</v>
+        <v>412</v>
       </c>
       <c r="B38" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B39" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B40" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B41" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B42" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B43" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B44" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B45" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="B46" s="1">
         <v>45712</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B47" s="1">
         <v>45712</v>
@@ -751,47 +751,47 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B48" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B49" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B50" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B51" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B52" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B53" s="1">
         <v>45464</v>
@@ -799,15 +799,15 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B54" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B55" s="1">
         <v>45713</v>
@@ -815,15 +815,15 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>2235</v>
+        <v>2129</v>
       </c>
       <c r="B56" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B57" s="1">
         <v>45711</v>
@@ -831,31 +831,39 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>2579</v>
+        <v>2236</v>
       </c>
       <c r="B58" s="1">
-        <v>45721</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B59" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B60" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>3110</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B60">
-    <sortCondition ref="A1:A60"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B61">
+    <sortCondition ref="A1:A61"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E24C13A-C2B9-4D10-B09E-011438625BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04B744B-903F-4D9E-804C-2A0317267D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -583,167 +583,167 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B27" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B28" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B29" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B30" s="1">
-        <v>45711</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B31" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B32" s="1">
-        <v>45731</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B33" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B34" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B35" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B36" s="1">
-        <v>45731</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B37" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B38" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>704</v>
+        <v>412</v>
       </c>
       <c r="B39" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B40" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B41" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B42" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B43" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B44" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B45" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B46" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="B47" s="1">
         <v>45712</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B48" s="1">
         <v>45712</v>
@@ -759,47 +759,47 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B49" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B50" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B51" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B52" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B53" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B54" s="1">
         <v>45464</v>
@@ -807,15 +807,15 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B55" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B56" s="1">
         <v>45713</v>
@@ -823,15 +823,15 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>2235</v>
+        <v>2129</v>
       </c>
       <c r="B57" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B58" s="1">
         <v>45711</v>
@@ -839,31 +839,39 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>2579</v>
+        <v>2236</v>
       </c>
       <c r="B59" s="1">
-        <v>45721</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B60" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B61" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>3110</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B61">
-    <sortCondition ref="A1:A61"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B64">
+    <sortCondition ref="A1:A64"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04B744B-903F-4D9E-804C-2A0317267D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3AF876-141D-4774-A7D2-D7CDA11DCF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -687,71 +687,71 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>704</v>
+        <v>454</v>
       </c>
       <c r="B40" s="1">
-        <v>45730</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B41" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B42" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B43" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B44" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B45" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B46" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B47" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="B48" s="1">
         <v>45712</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B49" s="1">
         <v>45712</v>
@@ -767,47 +767,47 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B50" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B51" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B52" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B53" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B54" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B55" s="1">
         <v>45464</v>
@@ -815,15 +815,15 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B56" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B57" s="1">
         <v>45713</v>
@@ -831,15 +831,15 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>2235</v>
+        <v>2129</v>
       </c>
       <c r="B58" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B59" s="1">
         <v>45711</v>
@@ -847,31 +847,39 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>2579</v>
+        <v>2236</v>
       </c>
       <c r="B60" s="1">
-        <v>45721</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B61" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B62" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>3110</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B64">
-    <sortCondition ref="A1:A64"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B63">
+    <sortCondition ref="A1:A63"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3AF876-141D-4774-A7D2-D7CDA11DCF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF0EE45-25D4-4A0B-86BA-7AA7B3ED7DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -407,87 +407,87 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>45731</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
-        <v>45445</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
-        <v>45731</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
-        <v>45445</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1">
-        <v>45711</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1">
-        <v>45730</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1">
-        <v>45445</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1">
-        <v>45711</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="1">
         <v>45711</v>
@@ -495,23 +495,23 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1">
-        <v>45447</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B17" s="1">
-        <v>45448</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B18" s="1">
         <v>45448</v>
@@ -519,63 +519,63 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B19" s="1">
-        <v>45450</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="B20" s="1">
-        <v>45451</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B21" s="1">
-        <v>45711</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="1">
-        <v>45729</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B23" s="1">
-        <v>45731</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B24" s="1">
-        <v>45452</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B25" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B26" s="1">
         <v>45461</v>
@@ -583,183 +583,183 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B27" s="1">
-        <v>45731</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B28" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B29" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B30" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B31" s="1">
-        <v>45711</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B32" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B33" s="1">
-        <v>45731</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B34" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B35" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B36" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B37" s="1">
-        <v>45731</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B38" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B39" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="B40" s="1">
-        <v>45732</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>704</v>
+        <v>454</v>
       </c>
       <c r="B41" s="1">
-        <v>45730</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B42" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B43" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B44" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B45" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B46" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B47" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B48" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="B49" s="1">
         <v>45712</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B50" s="1">
         <v>45712</v>
@@ -775,47 +775,47 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B51" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B52" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B53" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B54" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B55" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B56" s="1">
         <v>45464</v>
@@ -823,15 +823,15 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B57" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B58" s="1">
         <v>45713</v>
@@ -839,15 +839,15 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>2235</v>
+        <v>2129</v>
       </c>
       <c r="B59" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B60" s="1">
         <v>45711</v>
@@ -855,31 +855,39 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>2579</v>
+        <v>2236</v>
       </c>
       <c r="B61" s="1">
-        <v>45721</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B62" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B63" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>3110</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B63">
-    <sortCondition ref="A1:A63"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B64">
+    <sortCondition ref="A1:A64"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF0EE45-25D4-4A0B-86BA-7AA7B3ED7DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB34AE5-8C86-463A-85C1-27FD457B574D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -391,239 +391,239 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
-        <v>45461</v>
+        <v>45444</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
-        <v>45444</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1">
-        <v>45732</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1">
-        <v>45731</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="B7" s="1">
-        <v>45461</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="B8" s="1">
-        <v>45445</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B9" s="1">
-        <v>45731</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="B10" s="1">
-        <v>45730</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="B11" s="1">
-        <v>45445</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="B12" s="1">
-        <v>45711</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1">
-        <v>45730</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
-        <v>45445</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="B15" s="1">
-        <v>45711</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="B16" s="1">
-        <v>45711</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="B17" s="1">
-        <v>45447</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>98</v>
+        <v>342</v>
       </c>
       <c r="B18" s="1">
-        <v>45448</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>100</v>
+        <v>709</v>
       </c>
       <c r="B19" s="1">
-        <v>45448</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>104</v>
+        <v>326</v>
       </c>
       <c r="B20" s="1">
-        <v>45450</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>136</v>
+        <v>1920</v>
       </c>
       <c r="B21" s="1">
-        <v>45451</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>141</v>
+        <v>1929</v>
       </c>
       <c r="B22" s="1">
-        <v>45711</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>142</v>
+        <v>2769</v>
       </c>
       <c r="B23" s="1">
-        <v>45729</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>160</v>
+        <v>3110</v>
       </c>
       <c r="B24" s="1">
-        <v>45731</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1">
-        <v>45452</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="B27" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="B28" s="1">
-        <v>45731</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="B29" s="1">
-        <v>45730</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>206</v>
+        <v>1480</v>
       </c>
       <c r="B30" s="1">
-        <v>45731</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>209</v>
+        <v>2235</v>
       </c>
       <c r="B31" s="1">
-        <v>45730</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>226</v>
+        <v>2236</v>
       </c>
       <c r="B32" s="1">
         <v>45711</v>
@@ -631,31 +631,31 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>231</v>
+        <v>337</v>
       </c>
       <c r="B33" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>242</v>
+        <v>383</v>
       </c>
       <c r="B34" s="1">
-        <v>45731</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>326</v>
+        <v>771</v>
       </c>
       <c r="B35" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>337</v>
+        <v>1021</v>
       </c>
       <c r="B36" s="1">
         <v>45712</v>
@@ -663,23 +663,23 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>342</v>
+        <v>1051</v>
       </c>
       <c r="B37" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>349</v>
+        <v>1108</v>
       </c>
       <c r="B38" s="1">
-        <v>45731</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>383</v>
+        <v>1672</v>
       </c>
       <c r="B39" s="1">
         <v>45712</v>
@@ -695,199 +695,207 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>454</v>
+        <v>876</v>
       </c>
       <c r="B41" s="1">
-        <v>45732</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>704</v>
+        <v>1342</v>
       </c>
       <c r="B42" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>707</v>
+        <v>1524</v>
       </c>
       <c r="B43" s="1">
-        <v>45731</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>709</v>
+        <v>2011</v>
       </c>
       <c r="B44" s="1">
-        <v>45461</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>771</v>
+        <v>2129</v>
       </c>
       <c r="B45" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>876</v>
+        <v>2579</v>
       </c>
       <c r="B46" s="1">
-        <v>45713</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>977</v>
+        <v>142</v>
       </c>
       <c r="B47" s="1">
-        <v>45730</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>1002</v>
+        <v>27</v>
       </c>
       <c r="B48" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>1021</v>
+        <v>59</v>
       </c>
       <c r="B49" s="1">
-        <v>45712</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>1051</v>
+        <v>203</v>
       </c>
       <c r="B50" s="1">
-        <v>45712</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>1108</v>
+        <v>209</v>
       </c>
       <c r="B51" s="1">
-        <v>45712</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>1342</v>
+        <v>704</v>
       </c>
       <c r="B52" s="1">
-        <v>45713</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>1480</v>
+        <v>977</v>
       </c>
       <c r="B53" s="1">
-        <v>45711</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>1524</v>
+        <v>19</v>
       </c>
       <c r="B54" s="1">
-        <v>45713</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>1672</v>
+        <v>24</v>
       </c>
       <c r="B55" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>1920</v>
+        <v>160</v>
       </c>
       <c r="B56" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>1929</v>
+        <v>202</v>
       </c>
       <c r="B57" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>2011</v>
+        <v>206</v>
       </c>
       <c r="B58" s="1">
-        <v>45713</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>2129</v>
+        <v>242</v>
       </c>
       <c r="B59" s="1">
-        <v>45713</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>2235</v>
+        <v>349</v>
       </c>
       <c r="B60" s="1">
-        <v>45711</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>2236</v>
+        <v>707</v>
       </c>
       <c r="B61" s="1">
-        <v>45711</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>2579</v>
+        <v>1002</v>
       </c>
       <c r="B62" s="1">
-        <v>45721</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>2769</v>
+        <v>15</v>
       </c>
       <c r="B63" s="1">
-        <v>45464</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>3110</v>
+        <v>18</v>
       </c>
       <c r="B64" s="1">
-        <v>45464</v>
+        <v>45732</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>454</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45732</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B64">
-    <sortCondition ref="A1:A64"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B67">
+    <sortCondition ref="B1:B67"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB34AE5-8C86-463A-85C1-27FD457B574D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526379C5-739A-4B2B-8F83-63F2F8FD946E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -391,279 +391,279 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>45444</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>45445</v>
+        <v>45444</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>45445</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
-        <v>45445</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
-        <v>45447</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
-        <v>45448</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
-        <v>45448</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
-        <v>45450</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
-        <v>45451</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1">
-        <v>45452</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1">
-        <v>45461</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1">
-        <v>45461</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>231</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>342</v>
+        <v>83</v>
       </c>
       <c r="B18" s="1">
-        <v>45461</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>709</v>
+        <v>98</v>
       </c>
       <c r="B19" s="1">
-        <v>45461</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>326</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1">
-        <v>45464</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>1920</v>
+        <v>104</v>
       </c>
       <c r="B21" s="1">
-        <v>45464</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>1929</v>
+        <v>136</v>
       </c>
       <c r="B22" s="1">
-        <v>45464</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>2769</v>
+        <v>141</v>
       </c>
       <c r="B23" s="1">
-        <v>45464</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>3110</v>
+        <v>142</v>
       </c>
       <c r="B24" s="1">
-        <v>45464</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="B25" s="1">
-        <v>45711</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="B26" s="1">
-        <v>45711</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="B27" s="1">
-        <v>45711</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="B28" s="1">
-        <v>45711</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="B29" s="1">
-        <v>45711</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>1480</v>
+        <v>203</v>
       </c>
       <c r="B30" s="1">
-        <v>45711</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>2235</v>
+        <v>206</v>
       </c>
       <c r="B31" s="1">
-        <v>45711</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>2236</v>
+        <v>209</v>
       </c>
       <c r="B32" s="1">
-        <v>45711</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>337</v>
+        <v>226</v>
       </c>
       <c r="B33" s="1">
-        <v>45712</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>383</v>
+        <v>231</v>
       </c>
       <c r="B34" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>771</v>
+        <v>242</v>
       </c>
       <c r="B35" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>1021</v>
+        <v>326</v>
       </c>
       <c r="B36" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>1051</v>
+        <v>337</v>
       </c>
       <c r="B37" s="1">
         <v>45712</v>
@@ -671,39 +671,39 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>1108</v>
+        <v>342</v>
       </c>
       <c r="B38" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>1672</v>
+        <v>344</v>
       </c>
       <c r="B39" s="1">
-        <v>45712</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>412</v>
+        <v>349</v>
       </c>
       <c r="B40" s="1">
-        <v>45713</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>876</v>
+        <v>383</v>
       </c>
       <c r="B41" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>1342</v>
+        <v>412</v>
       </c>
       <c r="B42" s="1">
         <v>45713</v>
@@ -711,55 +711,55 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>1524</v>
+        <v>454</v>
       </c>
       <c r="B43" s="1">
-        <v>45713</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>2011</v>
+        <v>704</v>
       </c>
       <c r="B44" s="1">
-        <v>45713</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>2129</v>
+        <v>707</v>
       </c>
       <c r="B45" s="1">
-        <v>45713</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>2579</v>
+        <v>709</v>
       </c>
       <c r="B46" s="1">
-        <v>45721</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>142</v>
+        <v>771</v>
       </c>
       <c r="B47" s="1">
-        <v>45729</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>27</v>
+        <v>876</v>
       </c>
       <c r="B48" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>59</v>
+        <v>977</v>
       </c>
       <c r="B49" s="1">
         <v>45730</v>
@@ -767,135 +767,143 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>203</v>
+        <v>1002</v>
       </c>
       <c r="B50" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>209</v>
+        <v>1021</v>
       </c>
       <c r="B51" s="1">
-        <v>45730</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>704</v>
+        <v>1051</v>
       </c>
       <c r="B52" s="1">
-        <v>45730</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>977</v>
+        <v>1108</v>
       </c>
       <c r="B53" s="1">
-        <v>45730</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>19</v>
+        <v>1342</v>
       </c>
       <c r="B54" s="1">
-        <v>45731</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>24</v>
+        <v>1480</v>
       </c>
       <c r="B55" s="1">
-        <v>45731</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>160</v>
+        <v>1524</v>
       </c>
       <c r="B56" s="1">
-        <v>45731</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>202</v>
+        <v>1672</v>
       </c>
       <c r="B57" s="1">
-        <v>45731</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>206</v>
+        <v>1920</v>
       </c>
       <c r="B58" s="1">
-        <v>45731</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>242</v>
+        <v>1929</v>
       </c>
       <c r="B59" s="1">
-        <v>45731</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>349</v>
+        <v>2011</v>
       </c>
       <c r="B60" s="1">
-        <v>45731</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>707</v>
+        <v>2129</v>
       </c>
       <c r="B61" s="1">
-        <v>45731</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>1002</v>
+        <v>2235</v>
       </c>
       <c r="B62" s="1">
-        <v>45731</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>15</v>
+        <v>2236</v>
       </c>
       <c r="B63" s="1">
-        <v>45732</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>18</v>
+        <v>2579</v>
       </c>
       <c r="B64" s="1">
-        <v>45732</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>454</v>
+        <v>2769</v>
       </c>
       <c r="B65" s="1">
-        <v>45732</v>
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>3110</v>
+      </c>
+      <c r="B66" s="1">
+        <v>45464</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B67">
-    <sortCondition ref="B1:B67"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B66">
+    <sortCondition ref="A1:A66"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526379C5-739A-4B2B-8F83-63F2F8FD946E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460E0414-42F0-498D-91BF-1B3A163DD081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -719,71 +719,71 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="B44" s="1">
-        <v>45730</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B45" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B46" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B47" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B48" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B49" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B50" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B51" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="B52" s="1">
         <v>45712</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B53" s="1">
         <v>45712</v>
@@ -799,47 +799,47 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B54" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B55" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B56" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B57" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B58" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B59" s="1">
         <v>45464</v>
@@ -847,15 +847,15 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B60" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B61" s="1">
         <v>45713</v>
@@ -863,15 +863,15 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>2235</v>
+        <v>2129</v>
       </c>
       <c r="B62" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B63" s="1">
         <v>45711</v>
@@ -879,31 +879,39 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>2579</v>
+        <v>2236</v>
       </c>
       <c r="B64" s="1">
-        <v>45721</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B65" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B66" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>3110</v>
+      </c>
+      <c r="B67" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B66">
-    <sortCondition ref="A1:A66"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B67">
+    <sortCondition ref="A1:A67"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460E0414-42F0-498D-91BF-1B3A163DD081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C996EC8A-1EE7-4E50-A73B-31B333802F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -567,31 +567,31 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B25" s="1">
-        <v>45731</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B26" s="1">
-        <v>45452</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B27" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B28" s="1">
         <v>45461</v>
@@ -599,127 +599,127 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B29" s="1">
-        <v>45731</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B30" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B31" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B32" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B33" s="1">
-        <v>45711</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B34" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B35" s="1">
-        <v>45731</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B36" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B37" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B38" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B39" s="1">
-        <v>45732</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B40" s="1">
-        <v>45731</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B41" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B42" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="B43" s="1">
-        <v>45732</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>541</v>
+        <v>454</v>
       </c>
       <c r="B44" s="1">
         <v>45732</v>
@@ -727,71 +727,71 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="B45" s="1">
-        <v>45730</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B46" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B47" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B48" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B49" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B50" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B51" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B52" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="B53" s="1">
         <v>45712</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B54" s="1">
         <v>45712</v>
@@ -807,47 +807,47 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B55" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B56" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B57" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B58" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B59" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B60" s="1">
         <v>45464</v>
@@ -855,15 +855,15 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B61" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B62" s="1">
         <v>45713</v>
@@ -871,15 +871,15 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>2235</v>
+        <v>2129</v>
       </c>
       <c r="B63" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B64" s="1">
         <v>45711</v>
@@ -887,31 +887,39 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>2579</v>
+        <v>2236</v>
       </c>
       <c r="B65" s="1">
-        <v>45721</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B66" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B67" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>3110</v>
+      </c>
+      <c r="B68" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B67">
-    <sortCondition ref="A1:A67"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B68">
+    <sortCondition ref="A1:A68"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C996EC8A-1EE7-4E50-A73B-31B333802F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53386A1F-65EC-4F62-8964-A7EB0E03FB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -879,15 +879,15 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B64" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B65" s="1">
         <v>45711</v>
@@ -895,31 +895,39 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>2579</v>
+        <v>2236</v>
       </c>
       <c r="B66" s="1">
-        <v>45721</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B67" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B68" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>3110</v>
+      </c>
+      <c r="B69" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B68">
-    <sortCondition ref="A1:A68"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B69">
+    <sortCondition ref="A1:A69"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53386A1F-65EC-4F62-8964-A7EB0E03FB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E2654D-3A64-4E38-9444-EB4F3F8A968F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L74" sqref="L74"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -463,47 +463,47 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
-        <v>45445</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1">
-        <v>45711</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1">
-        <v>45730</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1">
-        <v>45445</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1">
-        <v>45711</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1">
         <v>45711</v>
@@ -511,23 +511,23 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1">
-        <v>45447</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1">
-        <v>45448</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B20" s="1">
         <v>45448</v>
@@ -535,71 +535,71 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B21" s="1">
-        <v>45450</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="B22" s="1">
-        <v>45451</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B23" s="1">
-        <v>45711</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B24" s="1">
-        <v>45729</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B25" s="1">
-        <v>45733</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B26" s="1">
-        <v>45731</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B27" s="1">
-        <v>45452</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B28" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B29" s="1">
         <v>45461</v>
@@ -607,127 +607,127 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B30" s="1">
-        <v>45731</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B31" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B32" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B33" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B34" s="1">
-        <v>45711</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B35" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B36" s="1">
-        <v>45731</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B37" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B38" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B39" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B40" s="1">
-        <v>45732</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B41" s="1">
-        <v>45731</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B42" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B43" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="B44" s="1">
-        <v>45732</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>541</v>
+        <v>454</v>
       </c>
       <c r="B45" s="1">
         <v>45732</v>
@@ -735,71 +735,71 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="B46" s="1">
-        <v>45730</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B47" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B48" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B49" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B50" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B51" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B52" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B53" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="B54" s="1">
         <v>45712</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B55" s="1">
         <v>45712</v>
@@ -815,47 +815,47 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B56" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B57" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B58" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B59" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B60" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B61" s="1">
         <v>45464</v>
@@ -863,15 +863,15 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B62" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B63" s="1">
         <v>45713</v>
@@ -879,23 +879,23 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B64" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B65" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B66" s="1">
         <v>45711</v>
@@ -903,31 +903,39 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>2579</v>
+        <v>2236</v>
       </c>
       <c r="B67" s="1">
-        <v>45721</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B68" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B69" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>3110</v>
+      </c>
+      <c r="B70" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B69">
-    <sortCondition ref="A1:A69"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B70">
+    <sortCondition ref="A1:A70"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E2654D-3A64-4E38-9444-EB4F3F8A968F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E9F026-58F2-4D52-8947-E8DF87E14BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -735,79 +735,79 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>541</v>
+        <v>459</v>
       </c>
       <c r="B46" s="1">
-        <v>45732</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="B47" s="1">
-        <v>45730</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B48" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B49" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B50" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B51" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B52" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B53" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B54" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="B55" s="1">
         <v>45712</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B56" s="1">
         <v>45712</v>
@@ -823,47 +823,47 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B57" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B58" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B59" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B60" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B61" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B62" s="1">
         <v>45464</v>
@@ -871,15 +871,15 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B63" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B64" s="1">
         <v>45713</v>
@@ -887,23 +887,23 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B65" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B66" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B67" s="1">
         <v>45711</v>
@@ -911,31 +911,39 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>2579</v>
+        <v>2236</v>
       </c>
       <c r="B68" s="1">
-        <v>45721</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B69" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B70" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>3110</v>
+      </c>
+      <c r="B71" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B70">
-    <sortCondition ref="A1:A70"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B71">
+    <sortCondition ref="A1:A71"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E9F026-58F2-4D52-8947-E8DF87E14BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248E87E3-3323-45A5-A261-326B84E2E99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7:F11"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -663,159 +663,159 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B37" s="1">
-        <v>45731</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B38" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B39" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B40" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B41" s="1">
-        <v>45732</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B42" s="1">
-        <v>45731</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B43" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B44" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="B45" s="1">
-        <v>45732</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B46" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>541</v>
+        <v>459</v>
       </c>
       <c r="B47" s="1">
-        <v>45732</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="B48" s="1">
-        <v>45730</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B49" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B50" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B51" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B52" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B53" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B54" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B55" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="B56" s="1">
         <v>45712</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B57" s="1">
         <v>45712</v>
@@ -831,47 +831,47 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B58" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B59" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B60" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B61" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B62" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B63" s="1">
         <v>45464</v>
@@ -879,15 +879,15 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B64" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B65" s="1">
         <v>45713</v>
@@ -895,23 +895,23 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B66" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B67" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B68" s="1">
         <v>45711</v>
@@ -919,31 +919,39 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>2579</v>
+        <v>2236</v>
       </c>
       <c r="B69" s="1">
-        <v>45721</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B70" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B71" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>3110</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B71">
-    <sortCondition ref="A1:A71"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B72">
+    <sortCondition ref="A1:A72"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248E87E3-3323-45A5-A261-326B84E2E99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B44B370-4185-440C-97AC-1AF546693805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -647,183 +647,183 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B35" s="1">
-        <v>45711</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B36" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B37" s="1">
-        <v>45733</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B38" s="1">
-        <v>45731</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B39" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B40" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B41" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B42" s="1">
-        <v>45732</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B43" s="1">
-        <v>45731</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B44" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B45" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="B46" s="1">
-        <v>45732</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B47" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>541</v>
+        <v>459</v>
       </c>
       <c r="B48" s="1">
-        <v>45732</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="B49" s="1">
-        <v>45730</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B50" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B51" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B52" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B53" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B54" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B55" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B56" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="B57" s="1">
         <v>45712</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B58" s="1">
         <v>45712</v>
@@ -839,47 +839,47 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B59" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B60" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B61" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B62" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B63" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B64" s="1">
         <v>45464</v>
@@ -887,15 +887,15 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B65" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B66" s="1">
         <v>45713</v>
@@ -903,23 +903,23 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B67" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B68" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B69" s="1">
         <v>45711</v>
@@ -927,31 +927,39 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>2579</v>
+        <v>2236</v>
       </c>
       <c r="B70" s="1">
-        <v>45721</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B71" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B72" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>3110</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B72">
-    <sortCondition ref="A1:A72"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B73">
+    <sortCondition ref="A1:A73"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B44B370-4185-440C-97AC-1AF546693805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20E5E09-9300-4575-A128-16FABD8C5ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -399,23 +399,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>45444</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>45732</v>
+        <v>45444</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>45732</v>
@@ -423,95 +423,95 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
-        <v>45731</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
-        <v>45445</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
-        <v>45731</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>45733</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>45445</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1">
-        <v>45711</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1">
-        <v>45730</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1">
-        <v>45445</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1">
-        <v>45711</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1">
         <v>45711</v>
@@ -519,23 +519,23 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1">
-        <v>45447</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B20" s="1">
-        <v>45448</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B21" s="1">
         <v>45448</v>
@@ -543,71 +543,71 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B22" s="1">
-        <v>45450</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="B23" s="1">
-        <v>45451</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B24" s="1">
-        <v>45711</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B25" s="1">
-        <v>45729</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B26" s="1">
-        <v>45733</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B27" s="1">
-        <v>45731</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B28" s="1">
-        <v>45452</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B29" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B30" s="1">
         <v>45461</v>
@@ -615,223 +615,223 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B31" s="1">
-        <v>45731</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B32" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B33" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B34" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B35" s="1">
-        <v>45734</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B36" s="1">
-        <v>45711</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B37" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B38" s="1">
-        <v>45733</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B39" s="1">
-        <v>45731</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B40" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B41" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B42" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B43" s="1">
-        <v>45732</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B44" s="1">
-        <v>45731</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B45" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B46" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="B47" s="1">
-        <v>45732</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B48" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>541</v>
+        <v>459</v>
       </c>
       <c r="B49" s="1">
-        <v>45732</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="B50" s="1">
-        <v>45730</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B51" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B52" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B53" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B54" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B55" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B56" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B57" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="B58" s="1">
         <v>45712</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B59" s="1">
         <v>45712</v>
@@ -847,47 +847,47 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B60" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B61" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B62" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B63" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B64" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B65" s="1">
         <v>45464</v>
@@ -895,15 +895,15 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B66" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B67" s="1">
         <v>45713</v>
@@ -911,23 +911,23 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B68" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B69" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B70" s="1">
         <v>45711</v>
@@ -935,31 +935,39 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>2579</v>
+        <v>2236</v>
       </c>
       <c r="B71" s="1">
-        <v>45721</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B72" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B73" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>3110</v>
+      </c>
+      <c r="B74" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B73">
-    <sortCondition ref="A1:A73"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B74">
+    <sortCondition ref="A1:A74"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20E5E09-9300-4575-A128-16FABD8C5ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1728650-7B13-42D2-B1A5-77EB0469779E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -943,31 +943,39 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B72" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B73" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B74" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>3110</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B74">
-    <sortCondition ref="A1:A74"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B75">
+    <sortCondition ref="A1:A75"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1728650-7B13-42D2-B1A5-77EB0469779E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9E8F12-1EF7-4FD6-A18A-6FC08EF1896A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -951,31 +951,39 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B73" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B74" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B75" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>3110</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B75">
-    <sortCondition ref="A1:A75"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B77">
+    <sortCondition ref="A1:A77"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9E8F12-1EF7-4FD6-A18A-6FC08EF1896A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF932F62-9D07-4161-9362-E8C5BE7DC294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Problem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Finish Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Milestone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -373,23 +393,41 @@
     <col min="1" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>45443</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>7</v>
       </c>
@@ -397,7 +435,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>11</v>
       </c>
@@ -405,7 +443,7 @@
         <v>45734</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>13</v>
       </c>
@@ -413,7 +451,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>15</v>
       </c>
@@ -421,7 +459,7 @@
         <v>45732</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>18</v>
       </c>
@@ -429,7 +467,7 @@
         <v>45732</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>19</v>
       </c>
@@ -437,7 +475,7 @@
         <v>45731</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>20</v>
       </c>
@@ -445,7 +483,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>21</v>
       </c>
@@ -453,7 +491,7 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>24</v>
       </c>
@@ -461,7 +499,7 @@
         <v>45731</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>27</v>
       </c>
@@ -469,7 +507,7 @@
         <v>45730</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>28</v>
       </c>
@@ -477,7 +515,7 @@
         <v>45733</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>35</v>
       </c>
@@ -485,41 +523,41 @@
         <v>45445</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16">
         <v>50</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="1">
         <v>45711</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>59</v>
-      </c>
-      <c r="B16" s="1">
-        <v>45730</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1">
-        <v>45445</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1">
-        <v>45711</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="1">
         <v>45711</v>
@@ -527,23 +565,23 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1">
-        <v>45447</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1">
-        <v>45448</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B22" s="1">
         <v>45448</v>
@@ -551,71 +589,71 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B23" s="1">
-        <v>45450</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="B24" s="1">
-        <v>45451</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B25" s="1">
-        <v>45711</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B26" s="1">
-        <v>45729</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B27" s="1">
-        <v>45733</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B28" s="1">
-        <v>45731</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B29" s="1">
-        <v>45452</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B30" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B31" s="1">
         <v>45461</v>
@@ -623,223 +661,223 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B32" s="1">
-        <v>45731</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B33" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B34" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B35" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B36" s="1">
-        <v>45734</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B37" s="1">
-        <v>45711</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B38" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B39" s="1">
-        <v>45733</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B40" s="1">
-        <v>45731</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B41" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B42" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B43" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B44" s="1">
-        <v>45732</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B45" s="1">
-        <v>45731</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B46" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B47" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="B48" s="1">
-        <v>45732</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B49" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>541</v>
+        <v>459</v>
       </c>
       <c r="B50" s="1">
-        <v>45732</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="B51" s="1">
-        <v>45730</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B52" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B53" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B54" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B55" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B56" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B57" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B58" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="B59" s="1">
         <v>45712</v>
@@ -847,7 +885,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B60" s="1">
         <v>45712</v>
@@ -855,47 +893,47 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B61" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B62" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B63" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B64" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B65" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B66" s="1">
         <v>45464</v>
@@ -903,15 +941,15 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B67" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B68" s="1">
         <v>45713</v>
@@ -919,23 +957,23 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B69" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B70" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B71" s="1">
         <v>45711</v>
@@ -943,10 +981,10 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B72" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
@@ -959,25 +997,33 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B74" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B75" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
+        <v>2769</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77">
         <v>3110</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B77" s="1">
         <v>45464</v>
       </c>
     </row>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF932F62-9D07-4161-9362-E8C5BE7DC294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63A123C-1216-403A-A203-7A3053E6A8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -885,15 +885,15 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B60" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B61" s="1">
         <v>45712</v>
@@ -901,47 +901,47 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B62" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B63" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B64" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B65" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B66" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B67" s="1">
         <v>45464</v>
@@ -949,15 +949,15 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B68" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B69" s="1">
         <v>45713</v>
@@ -965,23 +965,23 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B70" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B71" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B72" s="1">
         <v>45711</v>
@@ -989,10 +989,10 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B73" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
@@ -1005,31 +1005,39 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B75" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B76" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B77" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>3110</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B77">
-    <sortCondition ref="A1:A77"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B78">
+    <sortCondition ref="A1:A78"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63A123C-1216-403A-A203-7A3053E6A8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10D56B5-1821-4AE3-95C3-11DCD57DE355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -629,39 +629,39 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" s="1">
-        <v>45733</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B29" s="1">
-        <v>45731</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B30" s="1">
-        <v>45452</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B31" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B32" s="1">
         <v>45461</v>
@@ -669,239 +669,239 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B33" s="1">
-        <v>45731</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B34" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B35" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B36" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B37" s="1">
-        <v>45734</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B38" s="1">
-        <v>45711</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B39" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B40" s="1">
-        <v>45733</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B41" s="1">
-        <v>45731</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B42" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B43" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B44" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B45" s="1">
-        <v>45732</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B46" s="1">
-        <v>45731</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B47" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B48" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="B49" s="1">
-        <v>45732</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B50" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>541</v>
+        <v>459</v>
       </c>
       <c r="B51" s="1">
-        <v>45732</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="B52" s="1">
-        <v>45730</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B53" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B54" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B55" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B56" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B57" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B58" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B59" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B60" s="1">
-        <v>45734</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B61" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B62" s="1">
         <v>45712</v>
@@ -909,47 +909,47 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B63" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B64" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B65" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B66" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B67" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B68" s="1">
         <v>45464</v>
@@ -957,15 +957,15 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B69" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B70" s="1">
         <v>45713</v>
@@ -973,23 +973,23 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B71" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B72" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B73" s="1">
         <v>45711</v>
@@ -997,10 +997,10 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B74" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
@@ -1013,31 +1013,39 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B76" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B77" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B78" s="1">
         <v>45464</v>
       </c>
     </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>3110</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45464</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B78">
-    <sortCondition ref="A1:A78"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B79">
+    <sortCondition ref="A1:A79"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10D56B5-1821-4AE3-95C3-11DCD57DE355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BD85C8-6C6D-4A61-BEBF-4F1894997323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,8 +384,8 @@
   <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BD85C8-6C6D-4A61-BEBF-4F1894997323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FA6B8F-7FC6-4721-B2E2-4D9941041E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N70" sqref="N70"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1043,6 +1043,14 @@
         <v>45464</v>
       </c>
     </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>3191</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45735</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B79">
     <sortCondition ref="A1:A79"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FA6B8F-7FC6-4721-B2E2-4D9941041E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F450B3-9F31-449D-9078-E98E0181B152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -653,23 +653,23 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B31" s="1">
-        <v>45452</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B32" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B33" s="1">
         <v>45461</v>
@@ -677,239 +677,239 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B34" s="1">
-        <v>45731</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B35" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B36" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B37" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B38" s="1">
-        <v>45734</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B39" s="1">
-        <v>45711</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B40" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B41" s="1">
-        <v>45733</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B42" s="1">
-        <v>45731</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B43" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B44" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B45" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B46" s="1">
-        <v>45732</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B47" s="1">
-        <v>45731</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B48" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B49" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="B50" s="1">
-        <v>45732</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B51" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>541</v>
+        <v>459</v>
       </c>
       <c r="B52" s="1">
-        <v>45732</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="B53" s="1">
-        <v>45730</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B54" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B55" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B56" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B57" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B58" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B59" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B60" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B61" s="1">
-        <v>45734</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B62" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B63" s="1">
         <v>45712</v>
@@ -917,47 +917,47 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B64" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B65" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>1524</v>
+        <v>1480</v>
       </c>
       <c r="B66" s="1">
-        <v>45713</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B67" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B68" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B69" s="1">
         <v>45464</v>
@@ -965,15 +965,15 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B70" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B71" s="1">
         <v>45713</v>
@@ -981,23 +981,23 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B72" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B73" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B74" s="1">
         <v>45711</v>
@@ -1005,10 +1005,10 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B75" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
@@ -1021,23 +1021,23 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B77" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B78" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B79" s="1">
         <v>45464</v>
@@ -1045,15 +1045,23 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
+        <v>3110</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81">
         <v>3191</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B81" s="1">
         <v>45735</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B79">
-    <sortCondition ref="A1:A79"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B81">
+    <sortCondition ref="A1:A81"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F450B3-9F31-449D-9078-E98E0181B152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C05D66-D535-488A-92BC-28B8DD8DB399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -941,31 +941,31 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="B67" s="1">
-        <v>45713</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B68" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B69" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B70" s="1">
         <v>45464</v>
@@ -973,15 +973,15 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B71" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B72" s="1">
         <v>45713</v>
@@ -989,23 +989,23 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B73" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B74" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B75" s="1">
         <v>45711</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B76" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
@@ -1029,23 +1029,23 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B78" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B79" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>3110</v>
+        <v>2769</v>
       </c>
       <c r="B80" s="1">
         <v>45464</v>
@@ -1053,15 +1053,23 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
+        <v>3110</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82">
         <v>3191</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B82" s="1">
         <v>45735</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B81">
-    <sortCondition ref="A1:A81"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B82">
+    <sortCondition ref="A1:A82"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C05D66-D535-488A-92BC-28B8DD8DB399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC26E4F9-D3BB-4542-B51B-E90C0B514B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1053,23 +1053,31 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B81" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
+        <v>3110</v>
+      </c>
+      <c r="B82" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83">
         <v>3191</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B83" s="1">
         <v>45735</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B82">
-    <sortCondition ref="A1:A82"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B83">
+    <sortCondition ref="A1:A83"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC26E4F9-D3BB-4542-B51B-E90C0B514B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CECF8F0-2AAF-4D27-B222-92200E296C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -749,175 +749,175 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B43" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B44" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B45" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B46" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B47" s="1">
-        <v>45732</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B48" s="1">
-        <v>45731</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B49" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B50" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="B51" s="1">
-        <v>45732</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B52" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>541</v>
+        <v>459</v>
       </c>
       <c r="B53" s="1">
-        <v>45732</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="B54" s="1">
-        <v>45730</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B55" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B56" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B57" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B58" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B59" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B60" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B61" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B62" s="1">
-        <v>45734</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B63" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B64" s="1">
         <v>45712</v>
@@ -925,55 +925,55 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B65" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B66" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B67" s="1">
-        <v>45735</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="B68" s="1">
-        <v>45713</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B69" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B70" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B71" s="1">
         <v>45464</v>
@@ -981,15 +981,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B72" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B73" s="1">
         <v>45713</v>
@@ -997,23 +997,23 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B74" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B75" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B76" s="1">
         <v>45711</v>
@@ -1021,10 +1021,10 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B77" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
@@ -1037,47 +1037,55 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B79" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B80" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B81" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B82" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
+        <v>3110</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84">
         <v>3191</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B84" s="1">
         <v>45735</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B83">
-    <sortCondition ref="A1:A83"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B84">
+    <sortCondition ref="A1:A84"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CECF8F0-2AAF-4D27-B222-92200E296C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1938C562-7618-4375-A485-497E6A583F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -797,135 +797,135 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B49" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B50" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B51" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="B52" s="1">
-        <v>45732</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B53" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>541</v>
+        <v>459</v>
       </c>
       <c r="B54" s="1">
-        <v>45732</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="B55" s="1">
-        <v>45730</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B56" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B57" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B58" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B59" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B60" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B61" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B62" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B63" s="1">
-        <v>45734</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B64" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B65" s="1">
         <v>45712</v>
@@ -933,55 +933,55 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B66" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B67" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B68" s="1">
-        <v>45735</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="B69" s="1">
-        <v>45713</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B70" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B71" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B72" s="1">
         <v>45464</v>
@@ -989,15 +989,15 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B73" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>2129</v>
+        <v>2011</v>
       </c>
       <c r="B74" s="1">
         <v>45713</v>
@@ -1005,23 +1005,23 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B75" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B76" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B77" s="1">
         <v>45711</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B78" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
@@ -1045,47 +1045,55 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B80" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B81" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B82" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B83" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
+        <v>3110</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85">
         <v>3191</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B85" s="1">
         <v>45735</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B84">
-    <sortCondition ref="A1:A84"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B85">
+    <sortCondition ref="A1:A85"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1938C562-7618-4375-A485-497E6A583F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80C073F-391D-4164-BF8B-A37B7E39A7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1005,31 +1005,31 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="B75" s="1">
-        <v>45713</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B76" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B77" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B78" s="1">
         <v>45711</v>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B79" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
@@ -1053,47 +1053,55 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B81" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B82" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B83" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B84" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
+        <v>3110</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86">
         <v>3191</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B86" s="1">
         <v>45735</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B85">
-    <sortCondition ref="A1:A85"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B86">
+    <sortCondition ref="A1:A86"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80C073F-391D-4164-BF8B-A37B7E39A7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACE7A75-E90E-4E45-913F-A732C265EE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -573,23 +573,23 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B21" s="1">
-        <v>45447</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B22" s="1">
-        <v>45448</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B23" s="1">
         <v>45448</v>
@@ -597,87 +597,87 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B24" s="1">
-        <v>45450</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="B25" s="1">
-        <v>45451</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B26" s="1">
-        <v>45711</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B27" s="1">
-        <v>45729</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B28" s="1">
-        <v>45734</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B29" s="1">
-        <v>45733</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B30" s="1">
-        <v>45731</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B31" s="1">
-        <v>45735</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B32" s="1">
-        <v>45452</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B33" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B34" s="1">
         <v>45461</v>
@@ -685,255 +685,255 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B35" s="1">
-        <v>45731</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B36" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B37" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B38" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B39" s="1">
-        <v>45734</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B40" s="1">
-        <v>45711</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B41" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B42" s="1">
-        <v>45733</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B43" s="1">
-        <v>45736</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B44" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B45" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B46" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B47" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B48" s="1">
-        <v>45732</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B49" s="1">
-        <v>45736</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B50" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B51" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B52" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="B53" s="1">
-        <v>45732</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B54" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>541</v>
+        <v>459</v>
       </c>
       <c r="B55" s="1">
-        <v>45732</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="B56" s="1">
-        <v>45730</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B57" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B58" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B59" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B60" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B61" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B62" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B63" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B64" s="1">
-        <v>45734</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B65" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B66" s="1">
         <v>45712</v>
@@ -941,55 +941,55 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B67" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B68" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B69" s="1">
-        <v>45735</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="B70" s="1">
-        <v>45713</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B71" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B72" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B73" s="1">
         <v>45464</v>
@@ -997,47 +997,47 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B74" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>2115</v>
+        <v>2011</v>
       </c>
       <c r="B75" s="1">
-        <v>45737</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="B76" s="1">
-        <v>45713</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B77" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B78" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B79" s="1">
         <v>45711</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B80" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
@@ -1061,47 +1061,55 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B82" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B83" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B84" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B85" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
+        <v>3110</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87">
         <v>3191</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B87" s="1">
         <v>45735</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B86">
-    <sortCondition ref="A1:A86"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B87">
+    <sortCondition ref="A1:A87"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACE7A75-E90E-4E45-913F-A732C265EE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE5D666-AA66-4A83-9501-6A6012A060A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -589,15 +589,15 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B23" s="1">
-        <v>45448</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B24" s="1">
         <v>45448</v>
@@ -605,87 +605,87 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B25" s="1">
-        <v>45450</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="B26" s="1">
-        <v>45451</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B27" s="1">
-        <v>45711</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B28" s="1">
-        <v>45729</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B29" s="1">
-        <v>45734</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B30" s="1">
-        <v>45733</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B31" s="1">
-        <v>45731</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B32" s="1">
-        <v>45735</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B33" s="1">
-        <v>45452</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B34" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B35" s="1">
         <v>45461</v>
@@ -693,255 +693,255 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B36" s="1">
-        <v>45731</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B37" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B38" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B39" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B40" s="1">
-        <v>45734</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B41" s="1">
-        <v>45711</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B42" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B43" s="1">
-        <v>45733</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B44" s="1">
-        <v>45736</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B45" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B46" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B47" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B48" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B49" s="1">
-        <v>45732</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B50" s="1">
-        <v>45736</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B51" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B52" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B53" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="B54" s="1">
-        <v>45732</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B55" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>541</v>
+        <v>459</v>
       </c>
       <c r="B56" s="1">
-        <v>45732</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="B57" s="1">
-        <v>45730</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B58" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B59" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B60" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B61" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B62" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B63" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B64" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B65" s="1">
-        <v>45734</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B66" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B67" s="1">
         <v>45712</v>
@@ -949,55 +949,55 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B68" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B69" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B70" s="1">
-        <v>45735</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="B71" s="1">
-        <v>45713</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B72" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B73" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B74" s="1">
         <v>45464</v>
@@ -1005,47 +1005,47 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B75" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>2115</v>
+        <v>2011</v>
       </c>
       <c r="B76" s="1">
-        <v>45737</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="B77" s="1">
-        <v>45713</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B78" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B79" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B80" s="1">
         <v>45711</v>
@@ -1053,10 +1053,10 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B81" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
@@ -1069,47 +1069,55 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B83" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B84" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B85" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B86" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
+        <v>3110</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88">
         <v>3191</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B88" s="1">
         <v>45735</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B87">
-    <sortCondition ref="A1:A87"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B88">
+    <sortCondition ref="A1:A88"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE5D666-AA66-4A83-9501-6A6012A060A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD18896-D9D5-455B-A30F-0645654BA709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -645,55 +645,55 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B30" s="1">
-        <v>45734</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B31" s="1">
-        <v>45733</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B32" s="1">
-        <v>45731</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B33" s="1">
-        <v>45735</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B34" s="1">
-        <v>45452</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B35" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B36" s="1">
         <v>45461</v>
@@ -701,255 +701,255 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B37" s="1">
-        <v>45731</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B39" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B40" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B41" s="1">
-        <v>45734</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B42" s="1">
-        <v>45711</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B43" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B44" s="1">
-        <v>45733</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B45" s="1">
-        <v>45736</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B46" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B47" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B48" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B49" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B50" s="1">
-        <v>45732</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B51" s="1">
-        <v>45736</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B52" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B53" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B54" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="B55" s="1">
-        <v>45732</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B56" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>541</v>
+        <v>459</v>
       </c>
       <c r="B57" s="1">
-        <v>45732</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="B58" s="1">
-        <v>45730</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B59" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B60" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B61" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B62" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B63" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B64" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B65" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B66" s="1">
-        <v>45734</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B67" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B68" s="1">
         <v>45712</v>
@@ -957,55 +957,55 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B69" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B70" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B71" s="1">
-        <v>45735</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="B72" s="1">
-        <v>45713</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B73" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B74" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B75" s="1">
         <v>45464</v>
@@ -1013,47 +1013,47 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B76" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>2115</v>
+        <v>2011</v>
       </c>
       <c r="B77" s="1">
-        <v>45737</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="B78" s="1">
-        <v>45713</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B79" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B80" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B81" s="1">
         <v>45711</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B82" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
@@ -1077,47 +1077,55 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B84" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B85" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B86" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B87" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
+        <v>3110</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89">
         <v>3191</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B89" s="1">
         <v>45735</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B88">
-    <sortCondition ref="A1:A88"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B89">
+    <sortCondition ref="A1:A89"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD18896-D9D5-455B-A30F-0645654BA709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971F8E52-7477-4E6C-B5D9-C53EE491514B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -653,55 +653,55 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B31" s="1">
-        <v>45734</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B32" s="1">
-        <v>45733</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B33" s="1">
-        <v>45731</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B34" s="1">
-        <v>45735</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B35" s="1">
-        <v>45452</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B36" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B37" s="1">
         <v>45461</v>
@@ -709,255 +709,255 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B38" s="1">
-        <v>45731</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B39" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B40" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B41" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B42" s="1">
-        <v>45734</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B43" s="1">
-        <v>45711</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B44" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B45" s="1">
-        <v>45733</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B46" s="1">
-        <v>45736</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B47" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B48" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B49" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B50" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B51" s="1">
-        <v>45732</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B52" s="1">
-        <v>45736</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B53" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B54" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B55" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="B56" s="1">
-        <v>45732</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B57" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>541</v>
+        <v>459</v>
       </c>
       <c r="B58" s="1">
-        <v>45732</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="B59" s="1">
-        <v>45730</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B60" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B61" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B62" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B63" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B64" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B65" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B66" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B67" s="1">
-        <v>45734</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B68" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B69" s="1">
         <v>45712</v>
@@ -965,55 +965,55 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B70" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B71" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B72" s="1">
-        <v>45735</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="B73" s="1">
-        <v>45713</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B74" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B75" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B76" s="1">
         <v>45464</v>
@@ -1021,47 +1021,47 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B77" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>2115</v>
+        <v>2011</v>
       </c>
       <c r="B78" s="1">
-        <v>45737</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="B79" s="1">
-        <v>45713</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B80" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B81" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B82" s="1">
         <v>45711</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B83" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
@@ -1085,47 +1085,55 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B85" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B86" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B87" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B88" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
+        <v>3110</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90">
         <v>3191</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B90" s="1">
         <v>45735</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B89">
-    <sortCondition ref="A1:A89"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B90">
+    <sortCondition ref="A1:A90"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971F8E52-7477-4E6C-B5D9-C53EE491514B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0027ED97-22F1-412A-A1D1-561F281FC93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -845,127 +845,127 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B55" s="1">
-        <v>45712</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B56" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="B57" s="1">
-        <v>45732</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B58" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>541</v>
+        <v>459</v>
       </c>
       <c r="B59" s="1">
-        <v>45732</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="B60" s="1">
-        <v>45730</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B61" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B62" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B63" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B64" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B65" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B66" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B67" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B68" s="1">
-        <v>45734</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B69" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B70" s="1">
         <v>45712</v>
@@ -973,55 +973,55 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B71" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B72" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B73" s="1">
-        <v>45735</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="B74" s="1">
-        <v>45713</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B75" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B76" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B77" s="1">
         <v>45464</v>
@@ -1029,47 +1029,47 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B78" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>2115</v>
+        <v>2011</v>
       </c>
       <c r="B79" s="1">
-        <v>45737</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="B80" s="1">
-        <v>45713</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B81" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B82" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B83" s="1">
         <v>45711</v>
@@ -1077,10 +1077,10 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B84" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
@@ -1093,47 +1093,55 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B86" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>2769</v>
+        <v>2579</v>
       </c>
       <c r="B87" s="1">
-        <v>45464</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B88" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B89" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
+        <v>3110</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91">
         <v>3191</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B91" s="1">
         <v>45735</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B90">
-    <sortCondition ref="A1:A90"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B91">
+    <sortCondition ref="A1:A91"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0027ED97-22F1-412A-A1D1-561F281FC93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4DC230-48C1-4CBB-A2CC-4832F17A7DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1109,39 +1109,47 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>2769</v>
+        <v>2685</v>
       </c>
       <c r="B88" s="1">
-        <v>45464</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B89" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B90" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
+        <v>3110</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92">
         <v>3191</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B92" s="1">
         <v>45735</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B91">
-    <sortCondition ref="A1:A91"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B93">
+    <sortCondition ref="A1:A93"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4DC230-48C1-4CBB-A2CC-4832F17A7DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981A9093-EC5C-483E-B9DA-636A2FDDEC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -613,47 +613,47 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B26" s="1">
-        <v>45450</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="B27" s="1">
-        <v>45451</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B28" s="1">
-        <v>45711</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B29" s="1">
-        <v>45729</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B30" s="1">
-        <v>45738</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B31" s="1">
         <v>45738</v>
@@ -661,55 +661,55 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B32" s="1">
-        <v>45734</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B33" s="1">
-        <v>45733</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B34" s="1">
-        <v>45731</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B35" s="1">
-        <v>45735</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B36" s="1">
-        <v>45452</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B37" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B38" s="1">
         <v>45461</v>
@@ -717,263 +717,263 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B39" s="1">
-        <v>45731</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B40" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B41" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B42" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B43" s="1">
-        <v>45734</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B44" s="1">
-        <v>45711</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B45" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B46" s="1">
-        <v>45733</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B47" s="1">
-        <v>45736</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B48" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B49" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B50" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B51" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B52" s="1">
-        <v>45732</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B53" s="1">
-        <v>45736</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B54" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="B55" s="1">
-        <v>45738</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B56" s="1">
-        <v>45712</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B57" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="B58" s="1">
-        <v>45732</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B59" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>541</v>
+        <v>459</v>
       </c>
       <c r="B60" s="1">
-        <v>45732</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="B61" s="1">
-        <v>45730</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B62" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B63" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B64" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B65" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B66" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B67" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B68" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B69" s="1">
-        <v>45734</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B70" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B71" s="1">
         <v>45712</v>
@@ -981,55 +981,55 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B72" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B73" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B74" s="1">
-        <v>45735</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="B75" s="1">
-        <v>45713</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B76" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B77" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B78" s="1">
         <v>45464</v>
@@ -1037,47 +1037,47 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B79" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>2115</v>
+        <v>2011</v>
       </c>
       <c r="B80" s="1">
-        <v>45737</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="B81" s="1">
-        <v>45713</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B82" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B83" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B84" s="1">
         <v>45711</v>
@@ -1085,10 +1085,10 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B85" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
@@ -1101,49 +1101,57 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B87" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>2685</v>
+        <v>2579</v>
       </c>
       <c r="B88" s="1">
-        <v>45738</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>2769</v>
+        <v>2685</v>
       </c>
       <c r="B89" s="1">
-        <v>45464</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B90" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B91" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
+        <v>3110</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93">
         <v>3191</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B93" s="1">
         <v>45735</v>
       </c>
     </row>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981A9093-EC5C-483E-B9DA-636A2FDDEC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9811C7B0-CFD8-4E1F-ABC9-D8F99E75F83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -629,39 +629,39 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B28" s="1">
-        <v>45451</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B29" s="1">
-        <v>45711</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B30" s="1">
-        <v>45729</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B31" s="1">
-        <v>45738</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B32" s="1">
         <v>45738</v>
@@ -669,55 +669,55 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B33" s="1">
-        <v>45734</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B34" s="1">
-        <v>45733</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B35" s="1">
-        <v>45731</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B36" s="1">
-        <v>45735</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B37" s="1">
-        <v>45452</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B38" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B39" s="1">
         <v>45461</v>
@@ -725,263 +725,263 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B40" s="1">
-        <v>45731</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B41" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B42" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B43" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B44" s="1">
-        <v>45734</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B45" s="1">
-        <v>45711</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B46" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B47" s="1">
-        <v>45733</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B48" s="1">
-        <v>45736</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B49" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B50" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B51" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B52" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B53" s="1">
-        <v>45732</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B54" s="1">
-        <v>45736</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B55" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="B56" s="1">
-        <v>45738</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B57" s="1">
-        <v>45712</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B58" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="B59" s="1">
-        <v>45732</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B60" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>541</v>
+        <v>459</v>
       </c>
       <c r="B61" s="1">
-        <v>45732</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="B62" s="1">
-        <v>45730</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B63" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B64" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B65" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B66" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B67" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B68" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B69" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B70" s="1">
-        <v>45734</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B71" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B72" s="1">
         <v>45712</v>
@@ -989,55 +989,55 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B73" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B74" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B75" s="1">
-        <v>45735</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="B76" s="1">
-        <v>45713</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B77" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B78" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B79" s="1">
         <v>45464</v>
@@ -1045,47 +1045,47 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B80" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>2115</v>
+        <v>2011</v>
       </c>
       <c r="B81" s="1">
-        <v>45737</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="B82" s="1">
-        <v>45713</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B83" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B84" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B85" s="1">
         <v>45711</v>
@@ -1093,10 +1093,10 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B86" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
@@ -1109,55 +1109,63 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B88" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>2685</v>
+        <v>2579</v>
       </c>
       <c r="B89" s="1">
-        <v>45738</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>2769</v>
+        <v>2685</v>
       </c>
       <c r="B90" s="1">
-        <v>45464</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B91" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B92" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
+        <v>3110</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94">
         <v>3191</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B94" s="1">
         <v>45735</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B93">
-    <sortCondition ref="A1:A93"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B94">
+    <sortCondition ref="A1:A94"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9811C7B0-CFD8-4E1F-ABC9-D8F99E75F83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9E527B-40DF-4F8D-B234-1D0E30182E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -733,263 +733,263 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B41" s="1">
-        <v>45731</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B42" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B43" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B44" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B45" s="1">
-        <v>45734</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B46" s="1">
-        <v>45711</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B47" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B48" s="1">
-        <v>45733</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B49" s="1">
-        <v>45736</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B50" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B51" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B52" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B53" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B54" s="1">
-        <v>45732</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B55" s="1">
-        <v>45736</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B56" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="B57" s="1">
-        <v>45738</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B58" s="1">
-        <v>45712</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B59" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="B60" s="1">
-        <v>45732</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B61" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>541</v>
+        <v>459</v>
       </c>
       <c r="B62" s="1">
-        <v>45732</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>704</v>
+        <v>541</v>
       </c>
       <c r="B63" s="1">
-        <v>45730</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B64" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B65" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B66" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B67" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B68" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B69" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B70" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B71" s="1">
-        <v>45734</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B72" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B73" s="1">
         <v>45712</v>
@@ -997,55 +997,55 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B74" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B75" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B76" s="1">
-        <v>45735</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="B77" s="1">
-        <v>45713</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B78" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B79" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B80" s="1">
         <v>45464</v>
@@ -1053,47 +1053,47 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B81" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>2115</v>
+        <v>2011</v>
       </c>
       <c r="B82" s="1">
-        <v>45737</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="B83" s="1">
-        <v>45713</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B84" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B85" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B86" s="1">
         <v>45711</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B87" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
@@ -1117,55 +1117,63 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B89" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>2685</v>
+        <v>2579</v>
       </c>
       <c r="B90" s="1">
-        <v>45738</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>2769</v>
+        <v>2685</v>
       </c>
       <c r="B91" s="1">
-        <v>45464</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B92" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B93" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
+        <v>3110</v>
+      </c>
+      <c r="B94" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95">
         <v>3191</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B95" s="1">
         <v>45735</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B94">
-    <sortCondition ref="A1:A94"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B95">
+    <sortCondition ref="A1:A95"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9E527B-40DF-4F8D-B234-1D0E30182E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02783DA1-CFB0-4D71-9EE6-2989DF12B925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -917,87 +917,87 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>704</v>
+        <v>637</v>
       </c>
       <c r="B64" s="1">
-        <v>45730</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B65" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B66" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B67" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B68" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B69" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B70" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B71" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B72" s="1">
-        <v>45734</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B73" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B74" s="1">
         <v>45712</v>
@@ -1005,55 +1005,55 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B75" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B76" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B77" s="1">
-        <v>45735</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="B78" s="1">
-        <v>45713</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B79" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B80" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B81" s="1">
         <v>45464</v>
@@ -1061,47 +1061,47 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B82" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>2115</v>
+        <v>2011</v>
       </c>
       <c r="B83" s="1">
-        <v>45737</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="B84" s="1">
-        <v>45713</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B85" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B86" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B87" s="1">
         <v>45711</v>
@@ -1109,10 +1109,10 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B88" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
@@ -1125,55 +1125,63 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B90" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>2685</v>
+        <v>2579</v>
       </c>
       <c r="B91" s="1">
-        <v>45738</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>2769</v>
+        <v>2685</v>
       </c>
       <c r="B92" s="1">
-        <v>45464</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B93" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B94" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
+        <v>3110</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96">
         <v>3191</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B96" s="1">
         <v>45735</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B95">
-    <sortCondition ref="A1:A95"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B96">
+    <sortCondition ref="A1:A96"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02783DA1-CFB0-4D71-9EE6-2989DF12B925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85973D51-645F-43ED-B6C0-78E881A114EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -893,119 +893,119 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="B61" s="1">
-        <v>45732</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B62" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>541</v>
+        <v>459</v>
       </c>
       <c r="B63" s="1">
-        <v>45732</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>637</v>
+        <v>541</v>
       </c>
       <c r="B64" s="1">
-        <v>45738</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>704</v>
+        <v>637</v>
       </c>
       <c r="B65" s="1">
-        <v>45730</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B66" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B67" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B68" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B69" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B70" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B71" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B72" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B73" s="1">
-        <v>45734</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B74" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B75" s="1">
         <v>45712</v>
@@ -1013,55 +1013,55 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B76" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B77" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B78" s="1">
-        <v>45735</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="B79" s="1">
-        <v>45713</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B80" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B81" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B82" s="1">
         <v>45464</v>
@@ -1069,47 +1069,47 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B83" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>2115</v>
+        <v>2011</v>
       </c>
       <c r="B84" s="1">
-        <v>45737</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="B85" s="1">
-        <v>45713</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B86" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B87" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B88" s="1">
         <v>45711</v>
@@ -1117,10 +1117,10 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B89" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
@@ -1133,55 +1133,63 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B91" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>2685</v>
+        <v>2579</v>
       </c>
       <c r="B92" s="1">
-        <v>45738</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>2769</v>
+        <v>2685</v>
       </c>
       <c r="B93" s="1">
-        <v>45464</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B94" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B95" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
+        <v>3110</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97">
         <v>3191</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B97" s="1">
         <v>45735</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B96">
-    <sortCondition ref="A1:A96"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B97">
+    <sortCondition ref="A1:A97"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85973D51-645F-43ED-B6C0-78E881A114EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FADD615-810F-41F9-851B-CC721BEE6288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -917,103 +917,103 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="B64" s="1">
-        <v>45732</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>637</v>
+        <v>541</v>
       </c>
       <c r="B65" s="1">
-        <v>45738</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>704</v>
+        <v>637</v>
       </c>
       <c r="B66" s="1">
-        <v>45730</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B67" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B68" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B69" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B70" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B71" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B72" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B73" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B74" s="1">
-        <v>45734</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B75" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B76" s="1">
         <v>45712</v>
@@ -1021,55 +1021,55 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B77" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B78" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B79" s="1">
-        <v>45735</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="B80" s="1">
-        <v>45713</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B81" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B82" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B83" s="1">
         <v>45464</v>
@@ -1077,47 +1077,47 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B84" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>2115</v>
+        <v>2011</v>
       </c>
       <c r="B85" s="1">
-        <v>45737</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="B86" s="1">
-        <v>45713</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B87" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B88" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B89" s="1">
         <v>45711</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B90" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
@@ -1141,55 +1141,63 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B92" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>2685</v>
+        <v>2579</v>
       </c>
       <c r="B93" s="1">
-        <v>45738</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>2769</v>
+        <v>2685</v>
       </c>
       <c r="B94" s="1">
-        <v>45464</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B95" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B96" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97">
+        <v>3110</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98">
         <v>3191</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B98" s="1">
         <v>45735</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B97">
-    <sortCondition ref="A1:A97"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B98">
+    <sortCondition ref="A1:A98"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FADD615-810F-41F9-851B-CC721BEE6288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F8D915-F778-4560-82B2-7410F2255ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -637,39 +637,39 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B29" s="1">
-        <v>45451</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B30" s="1">
-        <v>45711</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B31" s="1">
-        <v>45729</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B32" s="1">
-        <v>45738</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B33" s="1">
         <v>45738</v>
@@ -677,55 +677,55 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B34" s="1">
-        <v>45734</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B35" s="1">
-        <v>45733</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B36" s="1">
-        <v>45731</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B37" s="1">
-        <v>45735</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B38" s="1">
-        <v>45452</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B39" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B40" s="1">
         <v>45461</v>
@@ -733,295 +733,295 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B41" s="1">
-        <v>45738</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B42" s="1">
-        <v>45731</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B43" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B44" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B45" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B46" s="1">
-        <v>45734</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B47" s="1">
-        <v>45711</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B48" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B49" s="1">
-        <v>45733</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B50" s="1">
-        <v>45736</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B51" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B52" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B53" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B54" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B55" s="1">
-        <v>45732</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B56" s="1">
-        <v>45736</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B57" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="B58" s="1">
-        <v>45738</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B59" s="1">
-        <v>45712</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B60" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="B61" s="1">
-        <v>45738</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="B62" s="1">
-        <v>45732</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B63" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>515</v>
+        <v>459</v>
       </c>
       <c r="B64" s="1">
-        <v>45738</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="B65" s="1">
-        <v>45732</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>637</v>
+        <v>541</v>
       </c>
       <c r="B66" s="1">
-        <v>45738</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>704</v>
+        <v>637</v>
       </c>
       <c r="B67" s="1">
-        <v>45730</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B68" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B69" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B70" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B71" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B72" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B73" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B74" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B75" s="1">
-        <v>45734</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B76" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B77" s="1">
         <v>45712</v>
@@ -1029,55 +1029,55 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B78" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B79" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B80" s="1">
-        <v>45735</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="B81" s="1">
-        <v>45713</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B82" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B83" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B84" s="1">
         <v>45464</v>
@@ -1085,47 +1085,47 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B85" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>2115</v>
+        <v>2011</v>
       </c>
       <c r="B86" s="1">
-        <v>45737</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="B87" s="1">
-        <v>45713</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B88" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B89" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B90" s="1">
         <v>45711</v>
@@ -1133,10 +1133,10 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B91" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
@@ -1149,55 +1149,63 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B93" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>2685</v>
+        <v>2579</v>
       </c>
       <c r="B94" s="1">
-        <v>45738</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>2769</v>
+        <v>2685</v>
       </c>
       <c r="B95" s="1">
-        <v>45464</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B96" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B97" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98">
+        <v>3110</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99">
         <v>3191</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B99" s="1">
         <v>45735</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B98">
-    <sortCondition ref="A1:A98"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B99">
+    <sortCondition ref="A1:A99"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F8D915-F778-4560-82B2-7410F2255ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBE3D32-4645-4BAF-B680-5BEA7CAFCBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -645,39 +645,39 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B30" s="1">
-        <v>45451</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B31" s="1">
-        <v>45711</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B32" s="1">
-        <v>45729</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B33" s="1">
-        <v>45738</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B34" s="1">
         <v>45738</v>
@@ -685,55 +685,55 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B35" s="1">
-        <v>45734</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B36" s="1">
-        <v>45733</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B37" s="1">
-        <v>45731</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B38" s="1">
-        <v>45735</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B39" s="1">
-        <v>45452</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B40" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B41" s="1">
         <v>45461</v>
@@ -741,295 +741,295 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B42" s="1">
-        <v>45738</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B43" s="1">
-        <v>45731</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B44" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B45" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B46" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B47" s="1">
-        <v>45734</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B48" s="1">
-        <v>45711</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B49" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B50" s="1">
-        <v>45733</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B51" s="1">
-        <v>45736</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B52" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B53" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B54" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B55" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B56" s="1">
-        <v>45732</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B57" s="1">
-        <v>45736</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B58" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="B59" s="1">
-        <v>45738</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B60" s="1">
-        <v>45712</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B61" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="B62" s="1">
-        <v>45738</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="B63" s="1">
-        <v>45732</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B64" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>515</v>
+        <v>459</v>
       </c>
       <c r="B65" s="1">
-        <v>45738</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="B66" s="1">
-        <v>45732</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>637</v>
+        <v>541</v>
       </c>
       <c r="B67" s="1">
-        <v>45738</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>704</v>
+        <v>637</v>
       </c>
       <c r="B68" s="1">
-        <v>45730</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B69" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B70" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B71" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B72" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B73" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B74" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B75" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B76" s="1">
-        <v>45734</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B77" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B78" s="1">
         <v>45712</v>
@@ -1037,55 +1037,55 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B79" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B80" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B81" s="1">
-        <v>45735</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="B82" s="1">
-        <v>45713</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B83" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B84" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B85" s="1">
         <v>45464</v>
@@ -1093,47 +1093,47 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B86" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>2115</v>
+        <v>2011</v>
       </c>
       <c r="B87" s="1">
-        <v>45737</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="B88" s="1">
-        <v>45713</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B89" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B90" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B91" s="1">
         <v>45711</v>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B92" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
@@ -1157,55 +1157,63 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B94" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>2685</v>
+        <v>2579</v>
       </c>
       <c r="B95" s="1">
-        <v>45738</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>2769</v>
+        <v>2685</v>
       </c>
       <c r="B96" s="1">
-        <v>45464</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B97" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B98" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99">
+        <v>3110</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100">
         <v>3191</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B100" s="1">
         <v>45735</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B99">
-    <sortCondition ref="A1:A99"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B100">
+    <sortCondition ref="A1:A100"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBE3D32-4645-4BAF-B680-5BEA7CAFCBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2645684-D1DE-494C-B67D-310BB5E5839C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,16 +381,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -426,6 +427,18 @@
       <c r="E2">
         <v>100</v>
       </c>
+      <c r="F2" s="1">
+        <v>45738</v>
+      </c>
+      <c r="G2">
+        <v>63</v>
+      </c>
+      <c r="H2">
+        <v>34</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
@@ -637,7 +650,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B29" s="1">
         <v>45738</v>
@@ -645,7 +658,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30" s="1">
         <v>45738</v>
@@ -653,39 +666,39 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B31" s="1">
-        <v>45451</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B32" s="1">
-        <v>45711</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B33" s="1">
-        <v>45729</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B34" s="1">
-        <v>45738</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B35" s="1">
         <v>45738</v>
@@ -693,55 +706,55 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B36" s="1">
-        <v>45734</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B37" s="1">
-        <v>45733</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B38" s="1">
-        <v>45731</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B39" s="1">
-        <v>45735</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B40" s="1">
-        <v>45452</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B41" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B42" s="1">
         <v>45461</v>
@@ -749,295 +762,295 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B43" s="1">
-        <v>45738</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B44" s="1">
-        <v>45731</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B45" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B46" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B47" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B48" s="1">
-        <v>45734</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B49" s="1">
-        <v>45711</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B50" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B51" s="1">
-        <v>45733</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B52" s="1">
-        <v>45736</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B53" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B54" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B55" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B56" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B57" s="1">
-        <v>45732</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B58" s="1">
-        <v>45736</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B59" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="B60" s="1">
-        <v>45738</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B61" s="1">
-        <v>45712</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B62" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="B63" s="1">
-        <v>45738</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="B64" s="1">
-        <v>45732</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B65" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>515</v>
+        <v>459</v>
       </c>
       <c r="B66" s="1">
-        <v>45738</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="B67" s="1">
-        <v>45732</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>637</v>
+        <v>541</v>
       </c>
       <c r="B68" s="1">
-        <v>45738</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>704</v>
+        <v>637</v>
       </c>
       <c r="B69" s="1">
-        <v>45730</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B70" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B71" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B72" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B73" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B74" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B75" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B76" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B77" s="1">
-        <v>45734</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B78" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B79" s="1">
         <v>45712</v>
@@ -1045,55 +1058,55 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B80" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B81" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B82" s="1">
-        <v>45735</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="B83" s="1">
-        <v>45713</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B84" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B85" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B86" s="1">
         <v>45464</v>
@@ -1101,47 +1114,47 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B87" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>2115</v>
+        <v>2011</v>
       </c>
       <c r="B88" s="1">
-        <v>45737</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="B89" s="1">
-        <v>45713</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B90" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B91" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B92" s="1">
         <v>45711</v>
@@ -1149,10 +1162,10 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B93" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
@@ -1165,55 +1178,63 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B95" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>2685</v>
+        <v>2579</v>
       </c>
       <c r="B96" s="1">
-        <v>45738</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>2769</v>
+        <v>2685</v>
       </c>
       <c r="B97" s="1">
-        <v>45464</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B98" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B99" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100">
+        <v>3110</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101">
         <v>3191</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B101" s="1">
         <v>45735</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B100">
-    <sortCondition ref="A1:A100"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B101">
+    <sortCondition ref="A1:A101"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2645684-D1DE-494C-B67D-310BB5E5839C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E817771-3AF8-48A8-A2EC-CBF025F6688F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -626,7 +626,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" s="1">
         <v>45738</v>
@@ -634,23 +634,23 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B27" s="1">
-        <v>45450</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B28" s="1">
-        <v>45738</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B29" s="1">
         <v>45738</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B30" s="1">
         <v>45738</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" s="1">
         <v>45738</v>
@@ -674,39 +674,39 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B32" s="1">
-        <v>45451</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B33" s="1">
-        <v>45711</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B34" s="1">
-        <v>45729</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B35" s="1">
-        <v>45738</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B36" s="1">
         <v>45738</v>
@@ -714,55 +714,55 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B37" s="1">
-        <v>45734</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B38" s="1">
-        <v>45733</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B39" s="1">
-        <v>45731</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B40" s="1">
-        <v>45735</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B41" s="1">
-        <v>45452</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B42" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B43" s="1">
         <v>45461</v>
@@ -770,295 +770,295 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B44" s="1">
-        <v>45738</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B45" s="1">
-        <v>45731</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B46" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B47" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B48" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B49" s="1">
-        <v>45734</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B50" s="1">
-        <v>45711</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B51" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B52" s="1">
-        <v>45733</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B53" s="1">
-        <v>45736</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B54" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B55" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B56" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B57" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B58" s="1">
-        <v>45732</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B59" s="1">
-        <v>45736</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B60" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="B61" s="1">
-        <v>45738</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B62" s="1">
-        <v>45712</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B63" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="B64" s="1">
-        <v>45738</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="B65" s="1">
-        <v>45732</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B66" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>515</v>
+        <v>459</v>
       </c>
       <c r="B67" s="1">
-        <v>45738</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="B68" s="1">
-        <v>45732</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>637</v>
+        <v>541</v>
       </c>
       <c r="B69" s="1">
-        <v>45738</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>704</v>
+        <v>637</v>
       </c>
       <c r="B70" s="1">
-        <v>45730</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B71" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B72" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B73" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B74" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B75" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B76" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B77" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B78" s="1">
-        <v>45734</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B79" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B80" s="1">
         <v>45712</v>
@@ -1066,55 +1066,55 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B81" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B82" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B83" s="1">
-        <v>45735</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="B84" s="1">
-        <v>45713</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B85" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B86" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B87" s="1">
         <v>45464</v>
@@ -1122,47 +1122,47 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>2011</v>
+        <v>1929</v>
       </c>
       <c r="B88" s="1">
-        <v>45713</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>2115</v>
+        <v>2011</v>
       </c>
       <c r="B89" s="1">
-        <v>45737</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="B90" s="1">
-        <v>45713</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B91" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B92" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B93" s="1">
         <v>45711</v>
@@ -1170,10 +1170,10 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B94" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
@@ -1186,55 +1186,63 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B96" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>2685</v>
+        <v>2579</v>
       </c>
       <c r="B97" s="1">
-        <v>45738</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>2769</v>
+        <v>2685</v>
       </c>
       <c r="B98" s="1">
-        <v>45464</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B99" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B100" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101">
+        <v>3110</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102">
         <v>3191</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B102" s="1">
         <v>45735</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B101">
-    <sortCondition ref="A1:A101"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B102">
+    <sortCondition ref="A1:A102"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E817771-3AF8-48A8-A2EC-CBF025F6688F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE29C0D-706C-4793-9609-FB5A66629311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -447,6 +447,7 @@
       <c r="B3" s="1">
         <v>45461</v>
       </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
@@ -1240,9 +1241,17 @@
         <v>45735</v>
       </c>
     </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>3492</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45739</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B102">
-    <sortCondition ref="A1:A102"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B103">
+    <sortCondition ref="A1:A103"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE29C0D-706C-4793-9609-FB5A66629311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849D7A32-9DB3-401E-933A-FA61B7AFAA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1131,47 +1131,47 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>2011</v>
+        <v>1976</v>
       </c>
       <c r="B89" s="1">
-        <v>45713</v>
+        <v>45739</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>2115</v>
+        <v>2011</v>
       </c>
       <c r="B90" s="1">
-        <v>45737</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="B91" s="1">
-        <v>45713</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B92" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B93" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B94" s="1">
         <v>45711</v>
@@ -1179,10 +1179,10 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B95" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
@@ -1195,63 +1195,71 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B97" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>2685</v>
+        <v>2579</v>
       </c>
       <c r="B98" s="1">
-        <v>45738</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>2769</v>
+        <v>2685</v>
       </c>
       <c r="B99" s="1">
-        <v>45464</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B100" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B101" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>3191</v>
+        <v>3110</v>
       </c>
       <c r="B102" s="1">
-        <v>45735</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103">
+        <v>3191</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45735</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104">
         <v>3492</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B104" s="1">
         <v>45739</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B103">
-    <sortCondition ref="A1:A103"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B104">
+    <sortCondition ref="A1:A104"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849D7A32-9DB3-401E-933A-FA61B7AFAA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205A7B51-86D9-4628-A8FC-51025BA2C294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -683,39 +683,36 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>136</v>
-      </c>
-      <c r="B33" s="1">
-        <v>45451</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B34" s="1">
-        <v>45711</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B35" s="1">
-        <v>45729</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B36" s="1">
-        <v>45738</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B37" s="1">
         <v>45738</v>
@@ -723,55 +720,55 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B38" s="1">
-        <v>45734</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B39" s="1">
-        <v>45733</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B40" s="1">
-        <v>45731</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B41" s="1">
-        <v>45735</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B42" s="1">
-        <v>45452</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B43" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B44" s="1">
         <v>45461</v>
@@ -779,295 +776,295 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B45" s="1">
-        <v>45738</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B46" s="1">
-        <v>45731</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B47" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B48" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B49" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B50" s="1">
-        <v>45734</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B51" s="1">
-        <v>45711</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B52" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B53" s="1">
-        <v>45733</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B54" s="1">
-        <v>45736</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B55" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B56" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B57" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B58" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B59" s="1">
-        <v>45732</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B60" s="1">
-        <v>45736</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B61" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="B62" s="1">
-        <v>45738</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B63" s="1">
-        <v>45712</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B64" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="B65" s="1">
-        <v>45738</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="B66" s="1">
-        <v>45732</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B67" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>515</v>
+        <v>459</v>
       </c>
       <c r="B68" s="1">
-        <v>45738</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="B69" s="1">
-        <v>45732</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>637</v>
+        <v>541</v>
       </c>
       <c r="B70" s="1">
-        <v>45738</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>704</v>
+        <v>637</v>
       </c>
       <c r="B71" s="1">
-        <v>45730</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B72" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B73" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B74" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B75" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B76" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B77" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B78" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B79" s="1">
-        <v>45734</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B80" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B81" s="1">
         <v>45712</v>
@@ -1075,55 +1072,55 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B82" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B83" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B84" s="1">
-        <v>45735</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="B85" s="1">
-        <v>45713</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B86" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B87" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B88" s="1">
         <v>45464</v>
@@ -1131,55 +1128,55 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>1976</v>
+        <v>1929</v>
       </c>
       <c r="B89" s="1">
-        <v>45739</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>2011</v>
+        <v>1976</v>
       </c>
       <c r="B90" s="1">
-        <v>45713</v>
+        <v>45739</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>2115</v>
+        <v>2011</v>
       </c>
       <c r="B91" s="1">
-        <v>45737</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="B92" s="1">
-        <v>45713</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B93" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B94" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B95" s="1">
         <v>45711</v>
@@ -1187,10 +1184,10 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B96" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
@@ -1203,63 +1200,71 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B98" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>2685</v>
+        <v>2579</v>
       </c>
       <c r="B99" s="1">
-        <v>45738</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>2769</v>
+        <v>2685</v>
       </c>
       <c r="B100" s="1">
-        <v>45464</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B101" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B102" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103">
-        <v>3191</v>
+        <v>3110</v>
       </c>
       <c r="B103" s="1">
-        <v>45735</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104">
+        <v>3191</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45735</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105">
         <v>3492</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B105" s="1">
         <v>45739</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B104">
-    <sortCondition ref="A1:A104"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B105">
+    <sortCondition ref="A1:A105"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205A7B51-86D9-4628-A8FC-51025BA2C294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E64C5B-ECAD-471B-B410-2D649980C4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -539,47 +539,47 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1">
-        <v>45734</v>
+        <v>45739</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1">
-        <v>45711</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1">
-        <v>45730</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1">
-        <v>45445</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1">
-        <v>45711</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1">
         <v>45711</v>
@@ -587,39 +587,39 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1">
-        <v>45737</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B22" s="1">
-        <v>45447</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B23" s="1">
-        <v>45738</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B24" s="1">
-        <v>45448</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B25" s="1">
         <v>45448</v>
@@ -627,15 +627,15 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" s="1">
-        <v>45738</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" s="1">
         <v>45738</v>
@@ -643,23 +643,23 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B28" s="1">
-        <v>45450</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B29" s="1">
-        <v>45738</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B30" s="1">
         <v>45738</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B31" s="1">
         <v>45738</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" s="1">
         <v>45738</v>
@@ -683,44 +683,47 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>121</v>
+        <v>117</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45738</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B34" s="1">
-        <v>45451</v>
+        <v>45739</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B35" s="1">
-        <v>45711</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B36" s="1">
-        <v>45729</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B37" s="1">
-        <v>45738</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B38" s="1">
         <v>45738</v>
@@ -728,55 +731,55 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B39" s="1">
-        <v>45734</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B40" s="1">
-        <v>45733</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B41" s="1">
-        <v>45731</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B42" s="1">
-        <v>45735</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B43" s="1">
-        <v>45452</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B44" s="1">
-        <v>45461</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B45" s="1">
         <v>45461</v>
@@ -784,295 +787,295 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B46" s="1">
-        <v>45738</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B47" s="1">
-        <v>45731</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B48" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B49" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B50" s="1">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B51" s="1">
-        <v>45734</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B52" s="1">
-        <v>45711</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B53" s="1">
-        <v>45461</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B54" s="1">
-        <v>45733</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B55" s="1">
-        <v>45736</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B56" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B57" s="1">
-        <v>45464</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B58" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B59" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B60" s="1">
-        <v>45732</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B61" s="1">
-        <v>45736</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B62" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="B63" s="1">
-        <v>45738</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B64" s="1">
-        <v>45712</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B65" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="B66" s="1">
-        <v>45738</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="B67" s="1">
-        <v>45732</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B68" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>515</v>
+        <v>459</v>
       </c>
       <c r="B69" s="1">
-        <v>45738</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="B70" s="1">
-        <v>45732</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>637</v>
+        <v>541</v>
       </c>
       <c r="B71" s="1">
-        <v>45738</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>704</v>
+        <v>637</v>
       </c>
       <c r="B72" s="1">
-        <v>45730</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B73" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B74" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B75" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B76" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B77" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B78" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B79" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B80" s="1">
-        <v>45734</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B81" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B82" s="1">
         <v>45712</v>
@@ -1080,55 +1083,55 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B83" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B84" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B85" s="1">
-        <v>45735</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="B86" s="1">
-        <v>45713</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B87" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B88" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B89" s="1">
         <v>45464</v>
@@ -1136,55 +1139,55 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>1976</v>
+        <v>1929</v>
       </c>
       <c r="B90" s="1">
-        <v>45739</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>2011</v>
+        <v>1976</v>
       </c>
       <c r="B91" s="1">
-        <v>45713</v>
+        <v>45739</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>2115</v>
+        <v>2011</v>
       </c>
       <c r="B92" s="1">
-        <v>45737</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="B93" s="1">
-        <v>45713</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B94" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B95" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B96" s="1">
         <v>45711</v>
@@ -1192,10 +1195,10 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B97" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
@@ -1208,63 +1211,71 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B99" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>2685</v>
+        <v>2579</v>
       </c>
       <c r="B100" s="1">
-        <v>45738</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>2769</v>
+        <v>2685</v>
       </c>
       <c r="B101" s="1">
-        <v>45464</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B102" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B103" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>3191</v>
+        <v>3110</v>
       </c>
       <c r="B104" s="1">
-        <v>45735</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105">
+        <v>3191</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45735</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106">
         <v>3492</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B106" s="1">
         <v>45739</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B105">
-    <sortCondition ref="A1:A105"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B106">
+    <sortCondition ref="A1:A106"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E64C5B-ECAD-471B-B410-2D649980C4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FF3B15-E1F7-48E9-A037-CE1E0B32A78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -883,207 +883,207 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="B58" s="1">
-        <v>45464</v>
+        <v>45739</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B59" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B60" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B61" s="1">
-        <v>45732</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B62" s="1">
-        <v>45736</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B63" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="B64" s="1">
-        <v>45738</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B65" s="1">
-        <v>45712</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B66" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="B67" s="1">
-        <v>45738</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="B68" s="1">
-        <v>45732</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B69" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>515</v>
+        <v>459</v>
       </c>
       <c r="B70" s="1">
-        <v>45738</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="B71" s="1">
-        <v>45732</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>637</v>
+        <v>541</v>
       </c>
       <c r="B72" s="1">
-        <v>45738</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>704</v>
+        <v>637</v>
       </c>
       <c r="B73" s="1">
-        <v>45730</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B74" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B75" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B76" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B77" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B78" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B79" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B80" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B81" s="1">
-        <v>45734</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B82" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B83" s="1">
         <v>45712</v>
@@ -1091,55 +1091,55 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B84" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B85" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B86" s="1">
-        <v>45735</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="B87" s="1">
-        <v>45713</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B88" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B89" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B90" s="1">
         <v>45464</v>
@@ -1147,55 +1147,55 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>1976</v>
+        <v>1929</v>
       </c>
       <c r="B91" s="1">
-        <v>45739</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>2011</v>
+        <v>1976</v>
       </c>
       <c r="B92" s="1">
-        <v>45713</v>
+        <v>45739</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>2115</v>
+        <v>2011</v>
       </c>
       <c r="B93" s="1">
-        <v>45737</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="B94" s="1">
-        <v>45713</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B95" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B96" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B97" s="1">
         <v>45711</v>
@@ -1203,10 +1203,10 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B98" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
@@ -1219,63 +1219,71 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B100" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>2685</v>
+        <v>2579</v>
       </c>
       <c r="B101" s="1">
-        <v>45738</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>2769</v>
+        <v>2685</v>
       </c>
       <c r="B102" s="1">
-        <v>45464</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B103" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B104" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105">
-        <v>3191</v>
+        <v>3110</v>
       </c>
       <c r="B105" s="1">
-        <v>45735</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106">
+        <v>3191</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45735</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107">
         <v>3492</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B107" s="1">
         <v>45739</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B106">
-    <sortCondition ref="A1:A106"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B107">
+    <sortCondition ref="A1:A107"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FF3B15-E1F7-48E9-A037-CE1E0B32A78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4F7C69-931E-45C0-BF4A-A53247FA13FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -883,7 +883,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="B58" s="1">
         <v>45739</v>
@@ -891,207 +891,207 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="B59" s="1">
-        <v>45464</v>
+        <v>45739</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B60" s="1">
-        <v>45712</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B61" s="1">
-        <v>45461</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B62" s="1">
-        <v>45732</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B63" s="1">
-        <v>45736</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B64" s="1">
-        <v>45731</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="B65" s="1">
-        <v>45738</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B66" s="1">
-        <v>45712</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B67" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="B68" s="1">
-        <v>45738</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="B69" s="1">
-        <v>45732</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B70" s="1">
-        <v>45733</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>515</v>
+        <v>459</v>
       </c>
       <c r="B71" s="1">
-        <v>45738</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="B72" s="1">
-        <v>45732</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>637</v>
+        <v>541</v>
       </c>
       <c r="B73" s="1">
-        <v>45738</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>704</v>
+        <v>637</v>
       </c>
       <c r="B74" s="1">
-        <v>45730</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B75" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B76" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B77" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B78" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B79" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B80" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B81" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B82" s="1">
-        <v>45734</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B83" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B84" s="1">
         <v>45712</v>
@@ -1099,55 +1099,55 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B85" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B86" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B87" s="1">
-        <v>45735</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="B88" s="1">
-        <v>45713</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B89" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B90" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B91" s="1">
         <v>45464</v>
@@ -1155,55 +1155,55 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>1976</v>
+        <v>1929</v>
       </c>
       <c r="B92" s="1">
-        <v>45739</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>2011</v>
+        <v>1976</v>
       </c>
       <c r="B93" s="1">
-        <v>45713</v>
+        <v>45739</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>2115</v>
+        <v>2011</v>
       </c>
       <c r="B94" s="1">
-        <v>45737</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="B95" s="1">
-        <v>45713</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B96" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B97" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B98" s="1">
         <v>45711</v>
@@ -1211,10 +1211,10 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B99" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
@@ -1227,63 +1227,71 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B101" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>2685</v>
+        <v>2579</v>
       </c>
       <c r="B102" s="1">
-        <v>45738</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103">
-        <v>2769</v>
+        <v>2685</v>
       </c>
       <c r="B103" s="1">
-        <v>45464</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B104" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B105" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106">
-        <v>3191</v>
+        <v>3110</v>
       </c>
       <c r="B106" s="1">
-        <v>45735</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107">
+        <v>3191</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45735</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108">
         <v>3492</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B108" s="1">
         <v>45739</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B107">
-    <sortCondition ref="A1:A107"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B108">
+    <sortCondition ref="A1:A108"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode/Record.xlsx
+++ b/Leetcode/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benson\Desktop\Online Judge\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4F7C69-931E-45C0-BF4A-A53247FA13FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B670AF65-044B-45A5-9835-981478406CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -995,111 +995,111 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="B72" s="1">
-        <v>45738</v>
+        <v>45740</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="B73" s="1">
-        <v>45732</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>637</v>
+        <v>541</v>
       </c>
       <c r="B74" s="1">
-        <v>45738</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>704</v>
+        <v>637</v>
       </c>
       <c r="B75" s="1">
-        <v>45730</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B76" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B77" s="1">
-        <v>45461</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B78" s="1">
-        <v>45712</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>876</v>
+        <v>771</v>
       </c>
       <c r="B79" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B80" s="1">
-        <v>45730</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B81" s="1">
-        <v>45731</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B82" s="1">
-        <v>45712</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B83" s="1">
-        <v>45734</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B84" s="1">
-        <v>45712</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="B85" s="1">
         <v>45712</v>
@@ -1107,55 +1107,55 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>1342</v>
+        <v>1108</v>
       </c>
       <c r="B86" s="1">
-        <v>45713</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="B87" s="1">
-        <v>45711</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B88" s="1">
-        <v>45735</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="B89" s="1">
-        <v>45713</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>1672</v>
+        <v>1524</v>
       </c>
       <c r="B90" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>1920</v>
+        <v>1672</v>
       </c>
       <c r="B91" s="1">
-        <v>45464</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="B92" s="1">
         <v>45464</v>
@@ -1163,55 +1163,55 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>1976</v>
+        <v>1929</v>
       </c>
       <c r="B93" s="1">
-        <v>45739</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>2011</v>
+        <v>1976</v>
       </c>
       <c r="B94" s="1">
-        <v>45713</v>
+        <v>45739</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>2115</v>
+        <v>2011</v>
       </c>
       <c r="B95" s="1">
-        <v>45737</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="B96" s="1">
-        <v>45713</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>2206</v>
+        <v>2129</v>
       </c>
       <c r="B97" s="1">
-        <v>45733</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="B98" s="1">
-        <v>45711</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B99" s="1">
         <v>45711</v>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>2401</v>
+        <v>2236</v>
       </c>
       <c r="B100" s="1">
-        <v>45734</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
@@ -1235,63 +1235,71 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>2579</v>
+        <v>2401</v>
       </c>
       <c r="B102" s="1">
-        <v>45721</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103">
-        <v>2685</v>
+        <v>2579</v>
       </c>
       <c r="B103" s="1">
-        <v>45738</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>2769</v>
+        <v>2685</v>
       </c>
       <c r="B104" s="1">
-        <v>45464</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105">
-        <v>3108</v>
+        <v>2769</v>
       </c>
       <c r="B105" s="1">
-        <v>45736</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B106" s="1">
-        <v>45464</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107">
-        <v>3191</v>
+        <v>3110</v>
       </c>
       <c r="B107" s="1">
-        <v>45735</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108">
+        <v>3191</v>
+      </c>
+      <c r="B108" s="1">
+        <v>45735</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109">
         <v>3492</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B109" s="1">
         <v>45739</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B108">
-    <sortCondition ref="A1:A108"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B109">
+    <sortCondition ref="A1:A109"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
